--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2000" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="1200" yWindow="4020" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -406,7 +406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1430">
+  <cellStyleXfs count="1440">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -421,6 +421,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1866,7 +1876,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1430">
+  <cellStyles count="1440">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2584,6 +2594,11 @@
     <cellStyle name="超链接" xfId="1424" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1426" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1428" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1430" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1432" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3294,6 +3309,11 @@
     <cellStyle name="访问过的超链接" xfId="1425" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1427" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1429" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1431" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1433" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3746,7 +3766,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4288,7 +4308,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4859,7 +4879,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4904,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
         <v>360</v>
@@ -4924,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>360</v>
@@ -4944,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>360</v>
@@ -4964,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
         <v>1000</v>
@@ -4984,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>1000</v>
@@ -5004,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>3600</v>
@@ -5064,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>7200</v>
@@ -5104,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>7200</v>
@@ -5144,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2">
         <v>7200</v>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -4,34 +4,39 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="4020" windowWidth="25600" windowHeight="16060" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="18000" windowHeight="16060" tabRatio="883" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
-    <sheet name="dragonAttributes" sheetId="62" r:id="rId2"/>
-    <sheet name="dragonSkills" sheetId="63" r:id="rId3"/>
-    <sheet name="fightFix" sheetId="61" r:id="rId4"/>
+    <sheet name="fightFix" sheetId="61" r:id="rId2"/>
+    <sheet name="dragonStar" sheetId="64" r:id="rId3"/>
+    <sheet name="dragonLevel" sheetId="62" r:id="rId4"/>
+    <sheet name="dragonSkills" sheetId="63" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -44,23 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
-  <si>
-    <t>INT_perLevelStrength</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_promotionLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_perLevelExp</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonBlood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>dragonBreath</t>
   </si>
@@ -69,51 +58,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>cavalryEnhance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>frenzied</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>insensitive</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>leadership</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthquake</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>recover</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>greedy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_perLevelVitality</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_IntiLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_heroBloodCostPerLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_initStrength</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_initVitality</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -174,10 +123,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_maxLevel</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_index</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -194,27 +139,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_perLevelLeadership</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_star</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_levelMax</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>crown,armguardLeft,armguardRight,chest,sting,orb</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_dragonSkill</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_unlockStar</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -225,19 +154,131 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>infantryEnhance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>archerEnhance</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_initLeadership</t>
+    <t>dragonBlood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>FLOAT_effectPerLevel</t>
+    <t>cavalryEnhance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>leadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>recover</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>earthquake</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_levelMax</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_expNeed</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_leadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_strength</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_vitality</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skillsUnlocked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryEnhance,archerEnhance,dragonBlood</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance,dragonBreath,leadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance,dragonBreath,leadership,greedy,frenzied,recover,insensitive,earthquake,battleHunger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_effect</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_infantryEnhanceBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_archerEnhanceBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_cavalryEnhanceBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_siegeEnhanceBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonBreathBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_leadershipBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_greedyBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_frenziedBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_recoverBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_insensitiveBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_earthquakeBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_battleHungerBloodCost</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_dragonBloodBloodCost</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1440">
+  <cellStyleXfs count="1458">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -421,6 +462,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1876,7 +1935,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1440">
+  <cellStyles count="1458">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2599,6 +2658,15 @@
     <cellStyle name="超链接" xfId="1434" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1436" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1438" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1440" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1442" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1444" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1446" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1448" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1450" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1452" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3314,6 +3382,15 @@
     <cellStyle name="访问过的超链接" xfId="1435" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1437" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1439" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1441" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1443" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1445" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1447" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1449" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1451" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1453" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3766,7 +3843,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -3785,130 +3862,130 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
@@ -4305,562 +4382,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="2" width="17" style="7" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" style="7" customWidth="1"/>
+    <col min="4" max="10" width="17" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20" customHeight="1">
-      <c r="A2" s="2">
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20" customHeight="1">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20" customHeight="1">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20" customHeight="1">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>128</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D10" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" customHeight="1">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>25</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>256</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="C11" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20" customHeight="1">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
         <v>12</v>
       </c>
-      <c r="H3" s="2">
-        <v>60</v>
-      </c>
-      <c r="I3" s="2">
-        <v>60</v>
-      </c>
-      <c r="J3" s="2">
-        <v>180</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20" customHeight="1">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>512</v>
-      </c>
-      <c r="E4" s="2">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
-        <v>120</v>
-      </c>
-      <c r="I4" s="2">
-        <v>120</v>
-      </c>
-      <c r="J4" s="2">
-        <v>360</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2">
-        <v>41</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1024</v>
-      </c>
-      <c r="E5" s="2">
-        <v>80</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2">
-        <v>200</v>
-      </c>
-      <c r="I5" s="2">
-        <v>200</v>
-      </c>
-      <c r="J5" s="2">
-        <v>580</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20" customHeight="1">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="20" customHeight="1">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" ht="20" customHeight="1">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="20" customHeight="1">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" ht="20" customHeight="1">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" ht="20" customHeight="1">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="20" customHeight="1">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="20" customHeight="1">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="20" customHeight="1">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="20" customHeight="1">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="20" customHeight="1">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="20" customHeight="1">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="20" customHeight="1">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="20" customHeight="1">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="20" customHeight="1">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="20" customHeight="1">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="20" customHeight="1">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="20" customHeight="1">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="20" customHeight="1">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="20" customHeight="1">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="20" customHeight="1">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" ht="20" customHeight="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="20" customHeight="1">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="20" customHeight="1">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="20" customHeight="1">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="D12" s="7">
+        <v>0.9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4876,542 +4578,418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="20" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2">
-        <v>360</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>360</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="19" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2">
-        <v>360</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:4" ht="20" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1">
-      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>20</v>
-      </c>
-      <c r="E12" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
-      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2">
-        <v>7200</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="20" customHeight="1">
+    </row>
+    <row r="17" spans="1:2" ht="20" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" ht="20" customHeight="1">
       <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" ht="20" customHeight="1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" ht="20" customHeight="1">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="20" customHeight="1">
       <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" ht="20" customHeight="1">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="20" customHeight="1">
       <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" ht="20" customHeight="1">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="20" customHeight="1">
       <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" ht="20" customHeight="1">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="20" customHeight="1">
       <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" ht="20" customHeight="1">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="20" customHeight="1">
       <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" ht="20" customHeight="1">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="20" customHeight="1">
       <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" ht="20" customHeight="1">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="20" customHeight="1">
       <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" ht="20" customHeight="1">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="20" customHeight="1">
       <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" ht="20" customHeight="1">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="20" customHeight="1">
       <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="20" customHeight="1">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="20" customHeight="1">
       <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="20" customHeight="1">
       <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="20" customHeight="1">
       <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20" customHeight="1">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="20" customHeight="1">
       <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="20" customHeight="1">
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="20" customHeight="1">
       <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="20" customHeight="1">
       <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="20" customHeight="1">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="20" customHeight="1">
       <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="20" customHeight="1">
       <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="20" customHeight="1">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="20" customHeight="1">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20" customHeight="1">
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="20" customHeight="1">
       <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="20" customHeight="1">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="20" customHeight="1">
       <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20" customHeight="1">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="20" customHeight="1">
       <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="20" customHeight="1">
       <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20" customHeight="1">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="20" customHeight="1">
       <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="20" customHeight="1">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="20" customHeight="1">
       <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20" customHeight="1">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="20" customHeight="1">
       <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="20" customHeight="1">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="20" customHeight="1">
       <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="20" customHeight="1">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="20" customHeight="1">
       <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="20" customHeight="1">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="20" customHeight="1">
       <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="20" customHeight="1">
       <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="20" customHeight="1">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="20" customHeight="1">
       <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" ht="20" customHeight="1">
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="20" customHeight="1">
       <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" ht="20" customHeight="1">
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="20" customHeight="1">
       <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" ht="20" customHeight="1">
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="20" customHeight="1">
       <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" ht="20" customHeight="1">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="20" customHeight="1">
       <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" ht="20" customHeight="1">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="20" customHeight="1">
       <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" ht="20" customHeight="1">
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="20" customHeight="1">
       <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" ht="20" customHeight="1">
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="20" customHeight="1">
       <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" ht="20" customHeight="1">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="20" customHeight="1">
       <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" ht="20" customHeight="1">
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="20" customHeight="1">
       <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" ht="20" customHeight="1">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="20" customHeight="1">
       <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" ht="20" customHeight="1">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="20" customHeight="1">
       <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" ht="20" customHeight="1">
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="20" customHeight="1">
       <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" ht="20" customHeight="1">
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="20" customHeight="1">
       <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" ht="20" customHeight="1">
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="20" customHeight="1">
       <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" ht="20" customHeight="1">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="20" customHeight="1">
       <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" ht="20" customHeight="1">
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="20" customHeight="1">
       <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" ht="20" customHeight="1">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="20" customHeight="1">
       <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" ht="20" customHeight="1">
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="20" customHeight="1">
       <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" ht="20" customHeight="1">
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="20" customHeight="1">
       <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" ht="20" customHeight="1">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="20" customHeight="1">
       <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" ht="20" customHeight="1">
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="20" customHeight="1">
       <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" ht="20" customHeight="1">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="20" customHeight="1">
       <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" ht="20" customHeight="1">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="20" customHeight="1">
       <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" ht="20" customHeight="1">
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="20" customHeight="1">
       <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" ht="20" customHeight="1">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="20" customHeight="1">
       <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" ht="20" customHeight="1">
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="20" customHeight="1">
       <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="20" customHeight="1">
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="20" customHeight="1">
       <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="20" customHeight="1">
       <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="20" customHeight="1">
       <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="20" customHeight="1">
       <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" ht="20" customHeight="1">
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="20" customHeight="1">
       <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="20" customHeight="1">
       <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" ht="20" customHeight="1">
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="20" customHeight="1">
       <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="20" customHeight="1">
       <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" ht="20" customHeight="1">
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="20" customHeight="1">
       <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="20" customHeight="1">
       <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" ht="20" customHeight="1">
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="20" customHeight="1">
       <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" ht="20" customHeight="1">
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="20" customHeight="1">
       <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" ht="20" customHeight="1">
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="20" customHeight="1">
       <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" ht="20" customHeight="1">
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="20" customHeight="1">
       <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" ht="20" customHeight="1">
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="20" customHeight="1">
       <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="20" customHeight="1">
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="20" customHeight="1">
       <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" ht="20" customHeight="1">
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="20" customHeight="1">
       <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="20" customHeight="1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="20" customHeight="1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="20" customHeight="1">
-      <c r="A99" s="3"/>
+      <c r="B96" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5427,187 +5005,2279 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView showRuler="0" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17" style="7" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="7" customWidth="1"/>
-    <col min="4" max="10" width="17" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="20.6640625" style="7"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>200</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>440</v>
+      </c>
+      <c r="C3" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>690</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>960</v>
+      </c>
+      <c r="C5" s="2">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1250</v>
+      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1560</v>
+      </c>
+      <c r="C7" s="2">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1890</v>
+      </c>
+      <c r="C8" s="2">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2240</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2610</v>
+      </c>
+      <c r="C10" s="2">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3000</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6200</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7680</v>
+      </c>
+      <c r="C13" s="2">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9240</v>
+      </c>
+      <c r="C14" s="2">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2">
+        <v>106</v>
+      </c>
+      <c r="E14" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>10880</v>
+      </c>
+      <c r="C15" s="2">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2">
+        <v>118</v>
+      </c>
+      <c r="E15" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>12600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2">
+        <v>131</v>
+      </c>
+      <c r="E16" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>14400</v>
+      </c>
+      <c r="C17" s="2">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2">
+        <v>144</v>
+      </c>
+      <c r="E17" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16280</v>
+      </c>
+      <c r="C18" s="2">
+        <v>98</v>
+      </c>
+      <c r="D18" s="2">
+        <v>157</v>
+      </c>
+      <c r="E18" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18240</v>
+      </c>
+      <c r="C19" s="2">
+        <v>106</v>
+      </c>
+      <c r="D19" s="2">
+        <v>170</v>
+      </c>
+      <c r="E19" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20280</v>
+      </c>
+      <c r="C20" s="2">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2">
+        <v>182</v>
+      </c>
+      <c r="E20" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>22400</v>
+      </c>
+      <c r="C21" s="2">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2">
+        <v>195</v>
+      </c>
+      <c r="E21" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>49280</v>
+      </c>
+      <c r="C22" s="2">
+        <v>234</v>
+      </c>
+      <c r="D22" s="2">
+        <v>374</v>
+      </c>
+      <c r="E22" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>61440</v>
+      </c>
+      <c r="C23" s="2">
+        <v>266</v>
+      </c>
+      <c r="D23" s="2">
+        <v>426</v>
+      </c>
+      <c r="E23" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>74880</v>
+      </c>
+      <c r="C24" s="2">
+        <v>298</v>
+      </c>
+      <c r="D24" s="2">
+        <v>477</v>
+      </c>
+      <c r="E24" s="2">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>89600</v>
+      </c>
+      <c r="C25" s="2">
+        <v>330</v>
+      </c>
+      <c r="D25" s="2">
+        <v>528</v>
+      </c>
+      <c r="E25" s="2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>105600</v>
+      </c>
+      <c r="C26" s="2">
+        <v>362</v>
+      </c>
+      <c r="D26" s="2">
+        <v>579</v>
+      </c>
+      <c r="E26" s="2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>122880</v>
+      </c>
+      <c r="C27" s="2">
+        <v>394</v>
+      </c>
+      <c r="D27" s="2">
+        <v>630</v>
+      </c>
+      <c r="E27" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>141440</v>
+      </c>
+      <c r="C28" s="2">
+        <v>426</v>
+      </c>
+      <c r="D28" s="2">
+        <v>682</v>
+      </c>
+      <c r="E28" s="2">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>161280</v>
+      </c>
+      <c r="C29" s="2">
+        <v>458</v>
+      </c>
+      <c r="D29" s="2">
+        <v>733</v>
+      </c>
+      <c r="E29" s="2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>182400</v>
+      </c>
+      <c r="C30" s="2">
+        <v>490</v>
+      </c>
+      <c r="D30" s="2">
+        <v>784</v>
+      </c>
+      <c r="E30" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>204800</v>
+      </c>
+      <c r="C31" s="2">
+        <v>522</v>
+      </c>
+      <c r="D31" s="2">
+        <v>835</v>
+      </c>
+      <c r="E31" s="2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>337920</v>
+      </c>
+      <c r="C32" s="2">
+        <v>778</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1245</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>399360</v>
+      </c>
+      <c r="C33" s="2">
+        <v>842</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>465920</v>
+      </c>
+      <c r="C34" s="2">
+        <v>906</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1450</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B35" s="2">
+        <v>537600</v>
+      </c>
+      <c r="C35" s="2">
+        <v>970</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1552</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B36" s="2">
+        <v>614400</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1034</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1654</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B37" s="2">
+        <v>696320</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1098</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1757</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" s="7">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B38" s="2">
+        <v>783360</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1162</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1859</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>875520</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1226</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1962</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>972800</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1290</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2064</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1075200</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1354</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2166</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1693440</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2026</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3242</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1886720</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2154</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3446</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2090240</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2282</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3651</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2304000</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2410</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3856</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2528000</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2538</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4061</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2762240</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2666</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4266</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3006720</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2794</v>
+      </c>
+      <c r="D48" s="2">
+        <v>4470</v>
+      </c>
+      <c r="E48" s="2">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3261440</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2922</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4675</v>
+      </c>
+      <c r="E49" s="2">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3526400</v>
+      </c>
+      <c r="C50" s="2">
+        <v>3050</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4880</v>
+      </c>
+      <c r="E50" s="2">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3840000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>3210</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5136</v>
+      </c>
+      <c r="E51" s="2">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="20" customHeight="1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" ht="20" customHeight="1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" ht="20" customHeight="1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" ht="20" customHeight="1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" ht="20" customHeight="1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="20" customHeight="1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="20" customHeight="1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="20" customHeight="1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="20" customHeight="1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="20" customHeight="1">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="20" customHeight="1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="20" customHeight="1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="20" customHeight="1">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="20" customHeight="1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="20" customHeight="1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="20" customHeight="1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="20" customHeight="1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="20" customHeight="1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="20" customHeight="1">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="20" customHeight="1">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="20" customHeight="1">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="20" customHeight="1">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="20" customHeight="1">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="20" customHeight="1">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="20" customHeight="1">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="20" customHeight="1">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="20" customHeight="1">
+      <c r="A96" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="20.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20" customHeight="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B2" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="C2" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2">
+        <v>70</v>
+      </c>
+      <c r="K2" s="2">
+        <v>70</v>
+      </c>
+      <c r="L2" s="2">
+        <v>70</v>
+      </c>
+      <c r="M2" s="2">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2">
+        <v>70</v>
+      </c>
+      <c r="O2" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="20" customHeight="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>120</v>
+      </c>
+      <c r="J3" s="2">
+        <v>170</v>
+      </c>
+      <c r="K3" s="2">
+        <v>170</v>
+      </c>
+      <c r="L3" s="2">
+        <v>170</v>
+      </c>
+      <c r="M3" s="2">
+        <v>170</v>
+      </c>
+      <c r="N3" s="2">
+        <v>170</v>
+      </c>
+      <c r="O3" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19" customHeight="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="D3" s="7">
+      <c r="B4" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="2">
+        <v>90</v>
+      </c>
+      <c r="D4" s="3">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>170</v>
+      </c>
+      <c r="I4" s="2">
+        <v>200</v>
+      </c>
+      <c r="J4" s="2">
+        <v>290</v>
+      </c>
+      <c r="K4" s="2">
+        <v>290</v>
+      </c>
+      <c r="L4" s="2">
+        <v>290</v>
+      </c>
+      <c r="M4" s="2">
+        <v>290</v>
+      </c>
+      <c r="N4" s="2">
+        <v>290</v>
+      </c>
+      <c r="O4" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20" customHeight="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C5" s="2">
+        <v>130</v>
+      </c>
+      <c r="D5" s="3">
+        <v>130</v>
+      </c>
+      <c r="E5" s="2">
+        <v>170</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2">
+        <v>250</v>
+      </c>
+      <c r="I5" s="2">
+        <v>290</v>
+      </c>
+      <c r="J5" s="2">
+        <v>420</v>
+      </c>
+      <c r="K5" s="2">
+        <v>420</v>
+      </c>
+      <c r="L5" s="2">
+        <v>420</v>
+      </c>
+      <c r="M5" s="2">
+        <v>420</v>
+      </c>
+      <c r="N5" s="2">
+        <v>420</v>
+      </c>
+      <c r="O5" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20" customHeight="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C6" s="2">
+        <v>170</v>
+      </c>
+      <c r="D6" s="3">
+        <v>170</v>
+      </c>
+      <c r="E6" s="2">
+        <v>230</v>
+      </c>
+      <c r="F6" s="2">
+        <v>200</v>
+      </c>
+      <c r="G6" s="2">
+        <v>200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>340</v>
+      </c>
+      <c r="I6" s="2">
+        <v>400</v>
+      </c>
+      <c r="J6" s="2">
+        <v>570</v>
+      </c>
+      <c r="K6" s="2">
+        <v>570</v>
+      </c>
+      <c r="L6" s="2">
+        <v>570</v>
+      </c>
+      <c r="M6" s="2">
+        <v>570</v>
+      </c>
+      <c r="N6" s="2">
+        <v>570</v>
+      </c>
+      <c r="O6" s="2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20" customHeight="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C7" s="2">
+        <v>420</v>
+      </c>
+      <c r="D7" s="3">
+        <v>420</v>
+      </c>
+      <c r="E7" s="2">
+        <v>560</v>
+      </c>
+      <c r="F7" s="2">
+        <v>490</v>
+      </c>
+      <c r="G7" s="2">
+        <v>490</v>
+      </c>
+      <c r="H7" s="2">
+        <v>840</v>
+      </c>
+      <c r="I7" s="2">
+        <v>980</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1390</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1390</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1390</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1390</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1390</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20" customHeight="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>610</v>
+      </c>
+      <c r="D8" s="3">
+        <v>610</v>
+      </c>
+      <c r="E8" s="2">
+        <v>810</v>
+      </c>
+      <c r="F8" s="2">
+        <v>710</v>
+      </c>
+      <c r="G8" s="2">
+        <v>710</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1210</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1410</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="20" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="C9" s="2">
+        <v>810</v>
+      </c>
+      <c r="D9" s="3">
+        <v>810</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1080</v>
+      </c>
+      <c r="F9" s="2">
+        <v>950</v>
+      </c>
+      <c r="G9" s="2">
+        <v>950</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1620</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1890</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20" customHeight="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1040</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1040</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1390</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1210</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1210</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2080</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2420</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3460</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3460</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3460</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3460</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3460</v>
+      </c>
+      <c r="O10" s="2">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20" customHeight="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
-      <c r="A5" s="7">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="C11" s="2">
+        <v>1290</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1290</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1710</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2570</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2990</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4270</v>
+      </c>
+      <c r="K11" s="2">
+        <v>4270</v>
+      </c>
+      <c r="L11" s="2">
+        <v>4270</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4270</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4270</v>
+      </c>
+      <c r="O11" s="2">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20" customHeight="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3330</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3330</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4430</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3880</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3880</v>
+      </c>
+      <c r="H12" s="2">
+        <v>6650</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7760</v>
+      </c>
+      <c r="J12" s="2">
+        <v>11080</v>
+      </c>
+      <c r="K12" s="2">
+        <v>11080</v>
+      </c>
+      <c r="L12" s="2">
+        <v>11080</v>
+      </c>
+      <c r="M12" s="2">
+        <v>11080</v>
+      </c>
+      <c r="N12" s="2">
+        <v>11080</v>
+      </c>
+      <c r="O12" s="2">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20" customHeight="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4940</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4940</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6580</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5760</v>
+      </c>
+      <c r="G13" s="2">
+        <v>5760</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9870</v>
+      </c>
+      <c r="I13" s="2">
+        <v>11520</v>
+      </c>
+      <c r="J13" s="2">
+        <v>16450</v>
+      </c>
+      <c r="K13" s="2">
+        <v>16450</v>
+      </c>
+      <c r="L13" s="2">
+        <v>16450</v>
+      </c>
+      <c r="M13" s="2">
+        <v>16450</v>
+      </c>
+      <c r="N13" s="2">
+        <v>16450</v>
+      </c>
+      <c r="O13" s="2">
+        <v>16450</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20" customHeight="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6860</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6860</v>
+      </c>
+      <c r="E14" s="2">
+        <v>9140</v>
+      </c>
+      <c r="F14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>13710</v>
+      </c>
+      <c r="I14" s="2">
+        <v>16000</v>
+      </c>
+      <c r="J14" s="2">
+        <v>22850</v>
+      </c>
+      <c r="K14" s="2">
+        <v>22850</v>
+      </c>
+      <c r="L14" s="2">
+        <v>22850</v>
+      </c>
+      <c r="M14" s="2">
+        <v>22850</v>
+      </c>
+      <c r="N14" s="2">
+        <v>22850</v>
+      </c>
+      <c r="O14" s="2">
+        <v>22850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9090</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9090</v>
+      </c>
+      <c r="E15" s="2">
+        <v>12110</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10600</v>
+      </c>
+      <c r="G15" s="2">
+        <v>10600</v>
+      </c>
+      <c r="H15" s="2">
+        <v>18170</v>
+      </c>
+      <c r="I15" s="2">
+        <v>21200</v>
+      </c>
+      <c r="J15" s="2">
+        <v>30280</v>
+      </c>
+      <c r="K15" s="2">
+        <v>30280</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30280</v>
+      </c>
+      <c r="M15" s="2">
+        <v>30280</v>
+      </c>
+      <c r="N15" s="2">
+        <v>30280</v>
+      </c>
+      <c r="O15" s="2">
+        <v>30280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20" customHeight="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11620</v>
+      </c>
+      <c r="D16" s="3">
+        <v>11620</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15490</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13560</v>
+      </c>
+      <c r="G16" s="2">
+        <v>13560</v>
+      </c>
+      <c r="H16" s="2">
+        <v>23240</v>
+      </c>
+      <c r="I16" s="2">
+        <v>27110</v>
+      </c>
+      <c r="J16" s="2">
+        <v>38720</v>
+      </c>
+      <c r="K16" s="2">
+        <v>38720</v>
+      </c>
+      <c r="L16" s="2">
+        <v>38720</v>
+      </c>
+      <c r="M16" s="2">
+        <v>38720</v>
+      </c>
+      <c r="N16" s="2">
+        <v>38720</v>
+      </c>
+      <c r="O16" s="2">
+        <v>38720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20" customHeight="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>22120</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22120</v>
+      </c>
+      <c r="E17" s="2">
+        <v>29500</v>
+      </c>
+      <c r="F17" s="2">
+        <v>25810</v>
+      </c>
+      <c r="G17" s="2">
+        <v>25810</v>
+      </c>
+      <c r="H17" s="2">
+        <v>44240</v>
+      </c>
+      <c r="I17" s="2">
+        <v>51610</v>
+      </c>
+      <c r="J17" s="2">
+        <v>73730</v>
+      </c>
+      <c r="K17" s="2">
+        <v>73730</v>
+      </c>
+      <c r="L17" s="2">
+        <v>73730</v>
+      </c>
+      <c r="M17" s="2">
+        <v>73730</v>
+      </c>
+      <c r="N17" s="2">
+        <v>73730</v>
+      </c>
+      <c r="O17" s="2">
+        <v>73730</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30110</v>
+      </c>
+      <c r="D18" s="3">
+        <v>30110</v>
+      </c>
+      <c r="E18" s="2">
+        <v>40150</v>
+      </c>
+      <c r="F18" s="2">
+        <v>35130</v>
+      </c>
+      <c r="G18" s="2">
+        <v>35130</v>
+      </c>
+      <c r="H18" s="2">
+        <v>60220</v>
+      </c>
+      <c r="I18" s="2">
+        <v>70250</v>
+      </c>
+      <c r="J18" s="2">
+        <v>100360</v>
+      </c>
+      <c r="K18" s="2">
+        <v>100360</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100360</v>
+      </c>
+      <c r="M18" s="2">
+        <v>100360</v>
+      </c>
+      <c r="N18" s="2">
+        <v>100360</v>
+      </c>
+      <c r="O18" s="2">
+        <v>100360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20" customHeight="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>39330</v>
+      </c>
+      <c r="D19" s="3">
+        <v>39330</v>
+      </c>
+      <c r="E19" s="2">
+        <v>52430</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45880</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45880</v>
+      </c>
+      <c r="H19" s="2">
+        <v>78650</v>
+      </c>
+      <c r="I19" s="2">
+        <v>91760</v>
+      </c>
+      <c r="J19" s="2">
+        <v>131080</v>
+      </c>
+      <c r="K19" s="2">
+        <v>131080</v>
+      </c>
+      <c r="L19" s="2">
+        <v>131080</v>
+      </c>
+      <c r="M19" s="2">
+        <v>131080</v>
+      </c>
+      <c r="N19" s="2">
+        <v>131080</v>
+      </c>
+      <c r="O19" s="2">
+        <v>131080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20" customHeight="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="C20" s="2">
+        <v>49770</v>
+      </c>
+      <c r="D20" s="3">
+        <v>49770</v>
+      </c>
+      <c r="E20" s="2">
+        <v>66360</v>
+      </c>
+      <c r="F20" s="2">
+        <v>58070</v>
+      </c>
+      <c r="G20" s="2">
+        <v>58070</v>
+      </c>
+      <c r="H20" s="2">
+        <v>99540</v>
+      </c>
+      <c r="I20" s="2">
+        <v>116130</v>
+      </c>
+      <c r="J20" s="2">
+        <v>165890</v>
+      </c>
+      <c r="K20" s="2">
+        <v>165890</v>
+      </c>
+      <c r="L20" s="2">
+        <v>165890</v>
+      </c>
+      <c r="M20" s="2">
+        <v>165890</v>
+      </c>
+      <c r="N20" s="2">
+        <v>165890</v>
+      </c>
+      <c r="O20" s="2">
+        <v>165890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.9</v>
-      </c>
+      <c r="C21" s="2">
+        <v>61440</v>
+      </c>
+      <c r="D21" s="3">
+        <v>61440</v>
+      </c>
+      <c r="E21" s="2">
+        <v>81920</v>
+      </c>
+      <c r="F21" s="2">
+        <v>71680</v>
+      </c>
+      <c r="G21" s="2">
+        <v>71680</v>
+      </c>
+      <c r="H21" s="2">
+        <v>122880</v>
+      </c>
+      <c r="I21" s="2">
+        <v>143360</v>
+      </c>
+      <c r="J21" s="2">
+        <v>204800</v>
+      </c>
+      <c r="K21" s="2">
+        <v>204800</v>
+      </c>
+      <c r="L21" s="2">
+        <v>204800</v>
+      </c>
+      <c r="M21" s="2">
+        <v>204800</v>
+      </c>
+      <c r="N21" s="2">
+        <v>204800</v>
+      </c>
+      <c r="O21" s="2">
+        <v>204800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20" customHeight="1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" ht="20" customHeight="1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="20" customHeight="1">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="20" customHeight="1">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="20" customHeight="1">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" ht="20" customHeight="1">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="20" customHeight="1">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="20" customHeight="1">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="20" customHeight="1">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="20" customHeight="1">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="20" customHeight="1">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" ht="20" customHeight="1">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" ht="20" customHeight="1">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" ht="20" customHeight="1">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" ht="20" customHeight="1">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" ht="20" customHeight="1">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" ht="20" customHeight="1">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" ht="20" customHeight="1">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" ht="20" customHeight="1">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" ht="20" customHeight="1">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" ht="20" customHeight="1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" ht="20" customHeight="1">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" ht="20" customHeight="1">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" ht="20" customHeight="1">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" ht="20" customHeight="1">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="20" customHeight="1">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" ht="20" customHeight="1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="20" customHeight="1">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="20" customHeight="1">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="20" customHeight="1">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="20" customHeight="1">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="20" customHeight="1">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" ht="20" customHeight="1">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="20" customHeight="1">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" ht="20" customHeight="1">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" ht="20" customHeight="1">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" ht="20" customHeight="1">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" ht="20" customHeight="1">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" ht="20" customHeight="1">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="20" customHeight="1">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" ht="20" customHeight="1">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" ht="20" customHeight="1">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" ht="20" customHeight="1">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" ht="20" customHeight="1">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" ht="20" customHeight="1">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" ht="20" customHeight="1">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="20" customHeight="1">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="20" customHeight="1">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="20" customHeight="1">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="20" customHeight="1">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="20" customHeight="1">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="20" customHeight="1">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="20" customHeight="1">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="20" customHeight="1">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="20" customHeight="1">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="20" customHeight="1">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="20" customHeight="1">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="20" customHeight="1">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="20" customHeight="1">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="20" customHeight="1">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="20" customHeight="1">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="20" customHeight="1">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="20" customHeight="1">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="20" customHeight="1">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="20" customHeight="1">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="20" customHeight="1">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="20" customHeight="1">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="20" customHeight="1">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="20" customHeight="1">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="20" customHeight="1">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="20" customHeight="1">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="20" customHeight="1">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="20" customHeight="1">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="20" customHeight="1">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" ht="20" customHeight="1">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" ht="20" customHeight="1">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" ht="20" customHeight="1">
+      <c r="A99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="18000" windowHeight="16060" tabRatio="883" activeTab="4"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="31460" windowHeight="16280" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -447,7 +447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1458">
+  <cellStyleXfs count="1460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -462,6 +462,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1935,7 +1937,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1458">
+  <cellStyles count="1460">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2667,6 +2669,7 @@
     <cellStyle name="超链接" xfId="1452" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3391,6 +3394,7 @@
     <cellStyle name="访问过的超链接" xfId="1453" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5007,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5047,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>12</v>
@@ -5064,7 +5068,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>440</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
@@ -5081,7 +5085,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>690</v>
+        <v>240</v>
       </c>
       <c r="C4" s="2">
         <v>16</v>
@@ -5098,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>960</v>
+        <v>440</v>
       </c>
       <c r="C5" s="2">
         <v>18</v>
@@ -5115,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1250</v>
+        <v>960</v>
       </c>
       <c r="C6" s="2">
         <v>20</v>
@@ -5132,7 +5136,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1560</v>
+        <v>1250</v>
       </c>
       <c r="C7" s="2">
         <v>22</v>
@@ -5149,7 +5153,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1890</v>
+        <v>1560</v>
       </c>
       <c r="C8" s="2">
         <v>24</v>
@@ -5166,7 +5170,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2240</v>
+        <v>1890</v>
       </c>
       <c r="C9" s="2">
         <v>26</v>
@@ -5183,7 +5187,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2610</v>
+        <v>2240</v>
       </c>
       <c r="C10" s="2">
         <v>28</v>
@@ -6043,7 +6047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="31460" windowHeight="16280" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="4020" yWindow="1700" windowWidth="31460" windowHeight="16280" tabRatio="883" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -447,7 +447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1460">
+  <cellStyleXfs count="1462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -462,6 +462,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1937,7 +1939,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1460">
+  <cellStyles count="1462">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2670,6 +2672,7 @@
     <cellStyle name="超链接" xfId="1454" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1460" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3395,6 +3398,7 @@
     <cellStyle name="访问过的超链接" xfId="1455" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1461" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5012,7 +5016,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1700" windowWidth="31460" windowHeight="16280" tabRatio="883" activeTab="3"/>
+    <workbookView xWindow="6000" yWindow="3840" windowWidth="31460" windowHeight="16280" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -447,7 +447,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1462">
+  <cellStyleXfs count="1476">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1914,8 +1914,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1938,8 +1952,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1462">
+  <cellStyles count="1476">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2673,6 +2690,13 @@
     <cellStyle name="超链接" xfId="1456" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1458" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1460" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1462" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1464" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1466" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1468" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3399,6 +3423,13 @@
     <cellStyle name="访问过的超链接" xfId="1457" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1459" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1461" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1463" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1465" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1467" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1469" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3850,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4595,7 +4626,9 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="20.6640625" style="2"/>
+    <col min="3" max="3" width="34.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
@@ -5015,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5028,9 +5061,8 @@
     <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="20.6640625" style="2"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
@@ -5055,16 +5087,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -5072,16 +5104,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -5089,16 +5121,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="C4" s="2">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
-        <v>26</v>
-      </c>
       <c r="E4" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -5106,16 +5138,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>440</v>
+        <v>880</v>
       </c>
       <c r="C5" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -5123,16 +5155,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>960</v>
+        <v>1920</v>
       </c>
       <c r="C6" s="2">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -5140,16 +5172,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1250</v>
+        <v>2500</v>
       </c>
       <c r="C7" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -5157,16 +5189,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1560</v>
+        <v>3120</v>
       </c>
       <c r="C8" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -5174,16 +5206,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1890</v>
+        <v>3780</v>
       </c>
       <c r="C9" s="2">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -5191,16 +5223,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>2240</v>
+        <v>4480</v>
       </c>
       <c r="C10" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -5208,16 +5240,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="C11" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -5225,16 +5257,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>6200</v>
+        <v>12400</v>
       </c>
       <c r="C12" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -5242,16 +5274,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>7680</v>
+        <v>15360</v>
       </c>
       <c r="C13" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -5259,16 +5291,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>9240</v>
+        <v>18480</v>
       </c>
       <c r="C14" s="2">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -5276,16 +5308,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>10880</v>
+        <v>21760</v>
       </c>
       <c r="C15" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D15" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -5293,16 +5325,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>12600</v>
+        <v>25200</v>
       </c>
       <c r="C16" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E16" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5310,16 +5342,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>14400</v>
+        <v>28800</v>
       </c>
       <c r="C17" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -5327,16 +5359,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>16280</v>
+        <v>32560</v>
       </c>
       <c r="C18" s="2">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E18" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -5344,16 +5376,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>18240</v>
+        <v>36480</v>
       </c>
       <c r="C19" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E19" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -5361,16 +5393,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>20280</v>
+        <v>40580</v>
       </c>
       <c r="C20" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E20" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -5378,16 +5410,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>22400</v>
+        <v>44820</v>
       </c>
       <c r="C21" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E21" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -5395,16 +5427,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>49280</v>
+        <v>98580</v>
       </c>
       <c r="C22" s="2">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D22" s="2">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="E22" s="2">
-        <v>421</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -5412,16 +5444,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>61440</v>
+        <v>122900</v>
       </c>
       <c r="C23" s="2">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D23" s="2">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="E23" s="2">
-        <v>479</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
@@ -5429,16 +5461,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>74880</v>
+        <v>149780</v>
       </c>
       <c r="C24" s="2">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D24" s="2">
-        <v>477</v>
+        <v>437</v>
       </c>
       <c r="E24" s="2">
-        <v>536</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -5446,16 +5478,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>89600</v>
+        <v>179220</v>
       </c>
       <c r="C25" s="2">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D25" s="2">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="E25" s="2">
-        <v>594</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -5463,16 +5495,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>105600</v>
+        <v>211220</v>
       </c>
       <c r="C26" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="D26" s="2">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E26" s="2">
-        <v>652</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
@@ -5480,16 +5512,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>122880</v>
+        <v>245780</v>
       </c>
       <c r="C27" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D27" s="2">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="E27" s="2">
-        <v>709</v>
+        <v>682</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
@@ -5497,16 +5529,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>141440</v>
+        <v>282900</v>
       </c>
       <c r="C28" s="2">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="D28" s="2">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="E28" s="2">
-        <v>767</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
@@ -5514,16 +5546,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>161280</v>
+        <v>322580</v>
       </c>
       <c r="C29" s="2">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="D29" s="2">
-        <v>733</v>
+        <v>692</v>
       </c>
       <c r="E29" s="2">
-        <v>824</v>
+        <v>797</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
@@ -5531,16 +5563,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>182400</v>
+        <v>364800</v>
       </c>
       <c r="C30" s="2">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D30" s="2">
-        <v>784</v>
+        <v>743</v>
       </c>
       <c r="E30" s="2">
-        <v>882</v>
+        <v>855</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
@@ -5548,16 +5580,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="C31" s="2">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="D31" s="2">
-        <v>835</v>
+        <v>794</v>
       </c>
       <c r="E31" s="2">
-        <v>940</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
@@ -5565,16 +5597,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>337920</v>
+        <v>675840</v>
       </c>
       <c r="C32" s="2">
-        <v>778</v>
+        <v>804</v>
       </c>
       <c r="D32" s="2">
-        <v>1245</v>
+        <v>1316</v>
       </c>
       <c r="E32" s="2">
-        <v>1400</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
@@ -5582,16 +5614,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>399360</v>
+        <v>798720</v>
       </c>
       <c r="C33" s="2">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="D33" s="2">
-        <v>1347</v>
+        <v>1418</v>
       </c>
       <c r="E33" s="2">
-        <v>1516</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
@@ -5599,16 +5631,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>465920</v>
+        <v>931840</v>
       </c>
       <c r="C34" s="2">
-        <v>906</v>
+        <v>932</v>
       </c>
       <c r="D34" s="2">
-        <v>1450</v>
+        <v>1521</v>
       </c>
       <c r="E34" s="2">
-        <v>1631</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
@@ -5616,16 +5648,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>537600</v>
+        <v>1075200</v>
       </c>
       <c r="C35" s="2">
-        <v>970</v>
+        <v>996</v>
       </c>
       <c r="D35" s="2">
-        <v>1552</v>
+        <v>1623</v>
       </c>
       <c r="E35" s="2">
-        <v>1746</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
@@ -5633,16 +5665,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>614400</v>
+        <v>1228800</v>
       </c>
       <c r="C36" s="2">
-        <v>1034</v>
+        <v>1060</v>
       </c>
       <c r="D36" s="2">
-        <v>1654</v>
+        <v>1725</v>
       </c>
       <c r="E36" s="2">
-        <v>1861</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
@@ -5650,16 +5682,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>696320</v>
+        <v>1392640</v>
       </c>
       <c r="C37" s="2">
-        <v>1098</v>
+        <v>1124</v>
       </c>
       <c r="D37" s="2">
-        <v>1757</v>
+        <v>1828</v>
       </c>
       <c r="E37" s="2">
-        <v>1976</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
@@ -5667,16 +5699,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>783360</v>
+        <v>1566720</v>
       </c>
       <c r="C38" s="2">
-        <v>1162</v>
+        <v>1188</v>
       </c>
       <c r="D38" s="2">
-        <v>1859</v>
+        <v>1930</v>
       </c>
       <c r="E38" s="2">
-        <v>2092</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
@@ -5684,16 +5716,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>875520</v>
+        <v>1751040</v>
       </c>
       <c r="C39" s="2">
-        <v>1226</v>
+        <v>1252</v>
       </c>
       <c r="D39" s="2">
-        <v>1962</v>
+        <v>2033</v>
       </c>
       <c r="E39" s="2">
-        <v>2207</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
@@ -5701,16 +5733,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>972800</v>
+        <v>1945600</v>
       </c>
       <c r="C40" s="2">
-        <v>1290</v>
+        <v>1316</v>
       </c>
       <c r="D40" s="2">
-        <v>2064</v>
+        <v>2135</v>
       </c>
       <c r="E40" s="2">
-        <v>2322</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
@@ -5718,16 +5750,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>1075200</v>
+        <v>2150400</v>
       </c>
       <c r="C41" s="2">
-        <v>1354</v>
+        <v>1380</v>
       </c>
       <c r="D41" s="2">
-        <v>2166</v>
+        <v>2237</v>
       </c>
       <c r="E41" s="2">
-        <v>2437</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
@@ -5735,16 +5767,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>1693440</v>
+        <v>3386880</v>
       </c>
       <c r="C42" s="2">
-        <v>2026</v>
+        <v>2148</v>
       </c>
       <c r="D42" s="2">
-        <v>3242</v>
+        <v>3662</v>
       </c>
       <c r="E42" s="2">
-        <v>3647</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
@@ -5752,16 +5784,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>1886720</v>
+        <v>3773460</v>
       </c>
       <c r="C43" s="2">
-        <v>2154</v>
+        <v>2276</v>
       </c>
       <c r="D43" s="2">
-        <v>3446</v>
+        <v>3867</v>
       </c>
       <c r="E43" s="2">
-        <v>3877</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1">
@@ -5769,16 +5801,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>2090240</v>
+        <v>4180500</v>
       </c>
       <c r="C44" s="2">
-        <v>2282</v>
+        <v>2404</v>
       </c>
       <c r="D44" s="2">
-        <v>3651</v>
+        <v>4072</v>
       </c>
       <c r="E44" s="2">
-        <v>4108</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1">
@@ -5786,16 +5818,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>2304000</v>
+        <v>4608200</v>
       </c>
       <c r="C45" s="2">
-        <v>2410</v>
+        <v>2532</v>
       </c>
       <c r="D45" s="2">
-        <v>3856</v>
+        <v>4277</v>
       </c>
       <c r="E45" s="2">
-        <v>4338</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1">
@@ -5803,16 +5835,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>2528000</v>
+        <v>5056200</v>
       </c>
       <c r="C46" s="2">
-        <v>2538</v>
+        <v>2660</v>
       </c>
       <c r="D46" s="2">
-        <v>4061</v>
+        <v>4482</v>
       </c>
       <c r="E46" s="2">
-        <v>4568</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1">
@@ -5820,16 +5852,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>2762240</v>
+        <v>5524600</v>
       </c>
       <c r="C47" s="2">
-        <v>2666</v>
+        <v>2788</v>
       </c>
       <c r="D47" s="2">
-        <v>4266</v>
+        <v>4686</v>
       </c>
       <c r="E47" s="2">
-        <v>4799</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1">
@@ -5837,16 +5869,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>3006720</v>
+        <v>6013600</v>
       </c>
       <c r="C48" s="2">
-        <v>2794</v>
+        <v>2916</v>
       </c>
       <c r="D48" s="2">
-        <v>4470</v>
+        <v>4891</v>
       </c>
       <c r="E48" s="2">
-        <v>5029</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1">
@@ -5854,16 +5886,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>3261440</v>
+        <v>6523000</v>
       </c>
       <c r="C49" s="2">
-        <v>2922</v>
+        <v>3044</v>
       </c>
       <c r="D49" s="2">
-        <v>4675</v>
+        <v>5096</v>
       </c>
       <c r="E49" s="2">
-        <v>5260</v>
+        <v>5827</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1">
@@ -5871,16 +5903,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>3526400</v>
+        <v>7053000</v>
       </c>
       <c r="C50" s="2">
-        <v>3050</v>
+        <v>3172</v>
       </c>
       <c r="D50" s="2">
-        <v>4880</v>
+        <v>5301</v>
       </c>
       <c r="E50" s="2">
-        <v>5490</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1">
@@ -5888,16 +5920,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>3840000</v>
-      </c>
-      <c r="C51" s="2">
-        <v>3210</v>
+        <v>7680200</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3300</v>
       </c>
       <c r="D51" s="2">
-        <v>5136</v>
+        <v>5506</v>
       </c>
       <c r="E51" s="2">
-        <v>5778</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1">
@@ -6052,7 +6084,7 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6118,7 +6150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
@@ -6165,7 +6197,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C3" s="2">
         <v>50</v>
@@ -6212,7 +6244,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="2">
         <v>90</v>
@@ -6259,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C5" s="2">
         <v>130</v>
@@ -6306,7 +6338,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="C6" s="2">
         <v>170</v>
@@ -6353,7 +6385,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="C7" s="2">
         <v>420</v>
@@ -6400,7 +6432,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="2">
         <v>610</v>
@@ -6447,7 +6479,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="C9" s="2">
         <v>810</v>
@@ -6494,7 +6526,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="C10" s="2">
         <v>1040</v>
@@ -6541,7 +6573,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C11" s="2">
         <v>1290</v>
@@ -6588,7 +6620,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="C12" s="2">
         <v>3330</v>
@@ -6635,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="C13" s="2">
         <v>4940</v>
@@ -6682,7 +6714,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="C14" s="2">
         <v>6860</v>
@@ -6729,7 +6761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="2">
         <v>9090</v>
@@ -6776,7 +6808,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="C16" s="2">
         <v>11620</v>
@@ -6823,7 +6855,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="C17" s="2">
         <v>22120</v>
@@ -6870,7 +6902,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="C18" s="2">
         <v>30110</v>
@@ -6917,7 +6949,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>0.18</v>
+        <v>0.36</v>
       </c>
       <c r="C19" s="2">
         <v>39330</v>
@@ -6964,7 +6996,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="C20" s="2">
         <v>49770</v>
@@ -7011,7 +7043,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C21" s="2">
         <v>61440</v>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="3840" windowWidth="31460" windowHeight="16280" tabRatio="883"/>
+    <workbookView xWindow="4080" yWindow="2880" windowWidth="31460" windowHeight="16280" tabRatio="883" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>dragonBreath</t>
   </si>
@@ -281,6 +281,18 @@
     <t>INT_dragonBloodBloodCost</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_initStrength</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_initVitality</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_initLeadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -447,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1476">
+  <cellStyleXfs count="1480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -462,6 +474,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1956,7 +1972,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1476">
+  <cellStyles count="1480">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2697,6 +2713,8 @@
     <cellStyle name="超链接" xfId="1470" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1472" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3430,6 +3448,8 @@
     <cellStyle name="访问过的超链接" xfId="1471" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1473" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3881,7 +3901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4617,21 +4637,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="34.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="20.6640625" style="2"/>
+    <col min="1" max="5" width="17.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="52" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4639,398 +4659,692 @@
         <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:7" ht="20" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:7" ht="20" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:7" ht="20" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>30</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>180</v>
+      </c>
+      <c r="D4" s="2">
+        <v>284</v>
+      </c>
+      <c r="E4" s="2">
+        <v>336</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:7" ht="20" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>40</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>740</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1214</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1392</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:7" ht="20" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3457</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3984</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="20" customHeight="1">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="20" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="20" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="20" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="20" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="20" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="20" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="20" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="20" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="20" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="20" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="20" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="20" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="20" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="20" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="20" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="20" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="20" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="20" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="20" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="20" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="20" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="20" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="20" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="20" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="20" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="20" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="20" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="20" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="20" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="20" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="20" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="20" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="20" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="20" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="20" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="20" customHeight="1">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="20" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="20" customHeight="1">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="20" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="20" customHeight="1">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="20" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="20" customHeight="1">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="20" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="20" customHeight="1">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="20" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="20" customHeight="1">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="20" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="20" customHeight="1">
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" ht="20" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="20" customHeight="1">
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" ht="20" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="20" customHeight="1">
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="20" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="20" customHeight="1">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="20" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="20" customHeight="1">
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="20" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="20" customHeight="1">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="20" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" ht="20" customHeight="1">
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="20" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="20" customHeight="1">
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="20" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="20" customHeight="1">
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="20" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="20" customHeight="1">
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="20" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -5049,7 +5363,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2880" windowWidth="31460" windowHeight="16280" tabRatio="883" activeTab="2"/>
+    <workbookView xWindow="3260" yWindow="700" windowWidth="31460" windowHeight="16280" tabRatio="297" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -459,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1480">
+  <cellStyleXfs count="1488">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -474,6 +474,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1972,7 +1980,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1480">
+  <cellStyles count="1488">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2715,6 +2723,10 @@
     <cellStyle name="超链接" xfId="1474" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1476" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1478" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1480" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3450,6 +3462,10 @@
     <cellStyle name="访问过的超链接" xfId="1475" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1477" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1479" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1481" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4639,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -6397,16 +6413,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:Q78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="20.6640625" style="2"/>
@@ -6467,43 +6483,43 @@
         <v>0.02</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I2" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="K2" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="L2" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="M2" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="N2" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="O2" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="20" customHeight="1">
@@ -6514,43 +6530,43 @@
         <v>0.04</v>
       </c>
       <c r="C3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G3" s="2">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H3" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I3" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="K3" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="L3" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="M3" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="N3" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="O3" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="19" customHeight="1">
@@ -6561,43 +6577,43 @@
         <v>0.06</v>
       </c>
       <c r="C4" s="2">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="D4" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H4" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="I4" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J4" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="K4" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="L4" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="M4" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="N4" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="O4" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20" customHeight="1">
@@ -6608,43 +6624,43 @@
         <v>0.08</v>
       </c>
       <c r="C5" s="2">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="D5" s="3">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="E5" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="F5" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="G5" s="2">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H5" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="I5" s="2">
-        <v>290</v>
+        <v>580</v>
       </c>
       <c r="J5" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="K5" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="L5" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="M5" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="N5" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="O5" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20" customHeight="1">
@@ -6655,43 +6671,43 @@
         <v>0.1</v>
       </c>
       <c r="C6" s="2">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="D6" s="3">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="E6" s="2">
-        <v>230</v>
+        <v>460</v>
       </c>
       <c r="F6" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G6" s="2">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H6" s="2">
-        <v>340</v>
+        <v>680</v>
       </c>
       <c r="I6" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="J6" s="2">
-        <v>570</v>
+        <v>1140</v>
       </c>
       <c r="K6" s="2">
-        <v>570</v>
+        <v>1140</v>
       </c>
       <c r="L6" s="2">
-        <v>570</v>
+        <v>1140</v>
       </c>
       <c r="M6" s="2">
-        <v>570</v>
+        <v>1140</v>
       </c>
       <c r="N6" s="2">
-        <v>570</v>
+        <v>1140</v>
       </c>
       <c r="O6" s="2">
-        <v>570</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1">
@@ -6702,43 +6718,43 @@
         <v>0.12</v>
       </c>
       <c r="C7" s="2">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="D7" s="3">
-        <v>420</v>
+        <v>840</v>
       </c>
       <c r="E7" s="2">
-        <v>560</v>
+        <v>1120</v>
       </c>
       <c r="F7" s="2">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="G7" s="2">
-        <v>490</v>
+        <v>980</v>
       </c>
       <c r="H7" s="2">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="I7" s="2">
-        <v>980</v>
+        <v>1960</v>
       </c>
       <c r="J7" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="K7" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="L7" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="M7" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="N7" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="O7" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1">
@@ -6749,43 +6765,43 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>610</v>
+        <v>1220</v>
       </c>
       <c r="D8" s="3">
-        <v>610</v>
+        <v>1220</v>
       </c>
       <c r="E8" s="2">
-        <v>810</v>
+        <v>1620</v>
       </c>
       <c r="F8" s="2">
-        <v>710</v>
+        <v>1420</v>
       </c>
       <c r="G8" s="2">
-        <v>710</v>
+        <v>1420</v>
       </c>
       <c r="H8" s="2">
-        <v>1210</v>
+        <v>2420</v>
       </c>
       <c r="I8" s="2">
-        <v>1410</v>
+        <v>2820</v>
       </c>
       <c r="J8" s="2">
-        <v>2020</v>
+        <v>4040</v>
       </c>
       <c r="K8" s="2">
-        <v>2020</v>
+        <v>4040</v>
       </c>
       <c r="L8" s="2">
-        <v>2020</v>
+        <v>4040</v>
       </c>
       <c r="M8" s="2">
-        <v>2020</v>
+        <v>4040</v>
       </c>
       <c r="N8" s="2">
-        <v>2020</v>
+        <v>4040</v>
       </c>
       <c r="O8" s="2">
-        <v>2020</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="20" customHeight="1">
@@ -6796,43 +6812,43 @@
         <v>0.16</v>
       </c>
       <c r="C9" s="2">
-        <v>810</v>
+        <v>1620</v>
       </c>
       <c r="D9" s="3">
-        <v>810</v>
+        <v>1620</v>
       </c>
       <c r="E9" s="2">
-        <v>1080</v>
+        <v>2160</v>
       </c>
       <c r="F9" s="2">
-        <v>950</v>
+        <v>1900</v>
       </c>
       <c r="G9" s="2">
-        <v>950</v>
+        <v>1900</v>
       </c>
       <c r="H9" s="2">
-        <v>1620</v>
+        <v>3240</v>
       </c>
       <c r="I9" s="2">
-        <v>1890</v>
+        <v>3780</v>
       </c>
       <c r="J9" s="2">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="K9" s="2">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="L9" s="2">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="M9" s="2">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="N9" s="2">
-        <v>2700</v>
+        <v>5400</v>
       </c>
       <c r="O9" s="2">
-        <v>2700</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="20" customHeight="1">
@@ -6843,43 +6859,43 @@
         <v>0.18</v>
       </c>
       <c r="C10" s="2">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="D10" s="3">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="E10" s="2">
-        <v>1390</v>
+        <v>2780</v>
       </c>
       <c r="F10" s="2">
-        <v>1210</v>
+        <v>2420</v>
       </c>
       <c r="G10" s="2">
-        <v>1210</v>
+        <v>2420</v>
       </c>
       <c r="H10" s="2">
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="I10" s="2">
-        <v>2420</v>
+        <v>4840</v>
       </c>
       <c r="J10" s="2">
-        <v>3460</v>
+        <v>6920</v>
       </c>
       <c r="K10" s="2">
-        <v>3460</v>
+        <v>6920</v>
       </c>
       <c r="L10" s="2">
-        <v>3460</v>
+        <v>6920</v>
       </c>
       <c r="M10" s="2">
-        <v>3460</v>
+        <v>6920</v>
       </c>
       <c r="N10" s="2">
-        <v>3460</v>
+        <v>6920</v>
       </c>
       <c r="O10" s="2">
-        <v>3460</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1">
@@ -6890,43 +6906,43 @@
         <v>0.2</v>
       </c>
       <c r="C11" s="2">
-        <v>1290</v>
+        <v>2580</v>
       </c>
       <c r="D11" s="3">
-        <v>1290</v>
+        <v>2580</v>
       </c>
       <c r="E11" s="2">
-        <v>1710</v>
+        <v>3420</v>
       </c>
       <c r="F11" s="2">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="G11" s="2">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="H11" s="2">
-        <v>2570</v>
+        <v>5140</v>
       </c>
       <c r="I11" s="2">
-        <v>2990</v>
+        <v>5980</v>
       </c>
       <c r="J11" s="2">
-        <v>4270</v>
+        <v>8540</v>
       </c>
       <c r="K11" s="2">
-        <v>4270</v>
+        <v>8540</v>
       </c>
       <c r="L11" s="2">
-        <v>4270</v>
+        <v>8540</v>
       </c>
       <c r="M11" s="2">
-        <v>4270</v>
+        <v>8540</v>
       </c>
       <c r="N11" s="2">
-        <v>4270</v>
+        <v>8540</v>
       </c>
       <c r="O11" s="2">
-        <v>4270</v>
+        <v>8540</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20" customHeight="1">
@@ -6937,43 +6953,43 @@
         <v>0.22</v>
       </c>
       <c r="C12" s="2">
-        <v>3330</v>
+        <v>6660</v>
       </c>
       <c r="D12" s="3">
-        <v>3330</v>
+        <v>6660</v>
       </c>
       <c r="E12" s="2">
-        <v>4430</v>
+        <v>8860</v>
       </c>
       <c r="F12" s="2">
-        <v>3880</v>
+        <v>7760</v>
       </c>
       <c r="G12" s="2">
-        <v>3880</v>
+        <v>7760</v>
       </c>
       <c r="H12" s="2">
-        <v>6650</v>
+        <v>13300</v>
       </c>
       <c r="I12" s="2">
-        <v>7760</v>
+        <v>15520</v>
       </c>
       <c r="J12" s="2">
-        <v>11080</v>
+        <v>22160</v>
       </c>
       <c r="K12" s="2">
-        <v>11080</v>
+        <v>22160</v>
       </c>
       <c r="L12" s="2">
-        <v>11080</v>
+        <v>22160</v>
       </c>
       <c r="M12" s="2">
-        <v>11080</v>
+        <v>22160</v>
       </c>
       <c r="N12" s="2">
-        <v>11080</v>
+        <v>22160</v>
       </c>
       <c r="O12" s="2">
-        <v>11080</v>
+        <v>22160</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1">
@@ -6984,43 +7000,43 @@
         <v>0.24</v>
       </c>
       <c r="C13" s="2">
-        <v>4940</v>
+        <v>9880</v>
       </c>
       <c r="D13" s="3">
-        <v>4940</v>
+        <v>9880</v>
       </c>
       <c r="E13" s="2">
-        <v>6580</v>
+        <v>13160</v>
       </c>
       <c r="F13" s="2">
-        <v>5760</v>
+        <v>11520</v>
       </c>
       <c r="G13" s="2">
-        <v>5760</v>
+        <v>11520</v>
       </c>
       <c r="H13" s="2">
-        <v>9870</v>
+        <v>19740</v>
       </c>
       <c r="I13" s="2">
-        <v>11520</v>
+        <v>23040</v>
       </c>
       <c r="J13" s="2">
-        <v>16450</v>
+        <v>32900</v>
       </c>
       <c r="K13" s="2">
-        <v>16450</v>
+        <v>32900</v>
       </c>
       <c r="L13" s="2">
-        <v>16450</v>
+        <v>32900</v>
       </c>
       <c r="M13" s="2">
-        <v>16450</v>
+        <v>32900</v>
       </c>
       <c r="N13" s="2">
-        <v>16450</v>
+        <v>32900</v>
       </c>
       <c r="O13" s="2">
-        <v>16450</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1">
@@ -7031,43 +7047,43 @@
         <v>0.26</v>
       </c>
       <c r="C14" s="2">
-        <v>6860</v>
+        <v>13720</v>
       </c>
       <c r="D14" s="3">
-        <v>6860</v>
+        <v>13720</v>
       </c>
       <c r="E14" s="2">
-        <v>9140</v>
+        <v>18280</v>
       </c>
       <c r="F14" s="2">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="G14" s="2">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="H14" s="2">
-        <v>13710</v>
+        <v>27420</v>
       </c>
       <c r="I14" s="2">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="J14" s="2">
-        <v>22850</v>
+        <v>45700</v>
       </c>
       <c r="K14" s="2">
-        <v>22850</v>
+        <v>45700</v>
       </c>
       <c r="L14" s="2">
-        <v>22850</v>
+        <v>45700</v>
       </c>
       <c r="M14" s="2">
-        <v>22850</v>
+        <v>45700</v>
       </c>
       <c r="N14" s="2">
-        <v>22850</v>
+        <v>45700</v>
       </c>
       <c r="O14" s="2">
-        <v>22850</v>
+        <v>45700</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20" customHeight="1">
@@ -7078,43 +7094,43 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C15" s="2">
-        <v>9090</v>
+        <v>18180</v>
       </c>
       <c r="D15" s="3">
-        <v>9090</v>
+        <v>18180</v>
       </c>
       <c r="E15" s="2">
-        <v>12110</v>
+        <v>24220</v>
       </c>
       <c r="F15" s="2">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="G15" s="2">
-        <v>10600</v>
+        <v>21200</v>
       </c>
       <c r="H15" s="2">
-        <v>18170</v>
+        <v>36340</v>
       </c>
       <c r="I15" s="2">
-        <v>21200</v>
+        <v>42400</v>
       </c>
       <c r="J15" s="2">
-        <v>30280</v>
+        <v>60560</v>
       </c>
       <c r="K15" s="2">
-        <v>30280</v>
+        <v>60560</v>
       </c>
       <c r="L15" s="2">
-        <v>30280</v>
+        <v>60560</v>
       </c>
       <c r="M15" s="2">
-        <v>30280</v>
+        <v>60560</v>
       </c>
       <c r="N15" s="2">
-        <v>30280</v>
+        <v>60560</v>
       </c>
       <c r="O15" s="2">
-        <v>30280</v>
+        <v>60560</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="20" customHeight="1">
@@ -7125,43 +7141,43 @@
         <v>0.3</v>
       </c>
       <c r="C16" s="2">
-        <v>11620</v>
+        <v>23240</v>
       </c>
       <c r="D16" s="3">
-        <v>11620</v>
+        <v>23240</v>
       </c>
       <c r="E16" s="2">
-        <v>15490</v>
+        <v>30980</v>
       </c>
       <c r="F16" s="2">
-        <v>13560</v>
+        <v>27120</v>
       </c>
       <c r="G16" s="2">
-        <v>13560</v>
+        <v>27120</v>
       </c>
       <c r="H16" s="2">
-        <v>23240</v>
+        <v>46480</v>
       </c>
       <c r="I16" s="2">
-        <v>27110</v>
+        <v>54220</v>
       </c>
       <c r="J16" s="2">
-        <v>38720</v>
+        <v>77440</v>
       </c>
       <c r="K16" s="2">
-        <v>38720</v>
+        <v>77440</v>
       </c>
       <c r="L16" s="2">
-        <v>38720</v>
+        <v>77440</v>
       </c>
       <c r="M16" s="2">
-        <v>38720</v>
+        <v>77440</v>
       </c>
       <c r="N16" s="2">
-        <v>38720</v>
+        <v>77440</v>
       </c>
       <c r="O16" s="2">
-        <v>38720</v>
+        <v>77440</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20" customHeight="1">
@@ -7172,43 +7188,43 @@
         <v>0.32</v>
       </c>
       <c r="C17" s="2">
-        <v>22120</v>
+        <v>44240</v>
       </c>
       <c r="D17" s="3">
-        <v>22120</v>
+        <v>44240</v>
       </c>
       <c r="E17" s="2">
-        <v>29500</v>
+        <v>59000</v>
       </c>
       <c r="F17" s="2">
-        <v>25810</v>
+        <v>51620</v>
       </c>
       <c r="G17" s="2">
-        <v>25810</v>
+        <v>51620</v>
       </c>
       <c r="H17" s="2">
-        <v>44240</v>
+        <v>88480</v>
       </c>
       <c r="I17" s="2">
-        <v>51610</v>
+        <v>103220</v>
       </c>
       <c r="J17" s="2">
-        <v>73730</v>
+        <v>147460</v>
       </c>
       <c r="K17" s="2">
-        <v>73730</v>
+        <v>147460</v>
       </c>
       <c r="L17" s="2">
-        <v>73730</v>
+        <v>147460</v>
       </c>
       <c r="M17" s="2">
-        <v>73730</v>
+        <v>147460</v>
       </c>
       <c r="N17" s="2">
-        <v>73730</v>
+        <v>147460</v>
       </c>
       <c r="O17" s="2">
-        <v>73730</v>
+        <v>147460</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20" customHeight="1">
@@ -7219,43 +7235,43 @@
         <v>0.34</v>
       </c>
       <c r="C18" s="2">
-        <v>30110</v>
+        <v>60220</v>
       </c>
       <c r="D18" s="3">
-        <v>30110</v>
+        <v>60220</v>
       </c>
       <c r="E18" s="2">
-        <v>40150</v>
+        <v>80300</v>
       </c>
       <c r="F18" s="2">
-        <v>35130</v>
+        <v>70260</v>
       </c>
       <c r="G18" s="2">
-        <v>35130</v>
+        <v>70260</v>
       </c>
       <c r="H18" s="2">
-        <v>60220</v>
+        <v>120440</v>
       </c>
       <c r="I18" s="2">
-        <v>70250</v>
+        <v>140500</v>
       </c>
       <c r="J18" s="2">
-        <v>100360</v>
+        <v>200720</v>
       </c>
       <c r="K18" s="2">
-        <v>100360</v>
+        <v>200720</v>
       </c>
       <c r="L18" s="2">
-        <v>100360</v>
+        <v>200720</v>
       </c>
       <c r="M18" s="2">
-        <v>100360</v>
+        <v>200720</v>
       </c>
       <c r="N18" s="2">
-        <v>100360</v>
+        <v>200720</v>
       </c>
       <c r="O18" s="2">
-        <v>100360</v>
+        <v>200720</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20" customHeight="1">
@@ -7266,43 +7282,43 @@
         <v>0.36</v>
       </c>
       <c r="C19" s="2">
-        <v>39330</v>
+        <v>78660</v>
       </c>
       <c r="D19" s="3">
-        <v>39330</v>
+        <v>78660</v>
       </c>
       <c r="E19" s="2">
-        <v>52430</v>
+        <v>104860</v>
       </c>
       <c r="F19" s="2">
-        <v>45880</v>
+        <v>91760</v>
       </c>
       <c r="G19" s="2">
-        <v>45880</v>
+        <v>91760</v>
       </c>
       <c r="H19" s="2">
-        <v>78650</v>
+        <v>157300</v>
       </c>
       <c r="I19" s="2">
-        <v>91760</v>
+        <v>183520</v>
       </c>
       <c r="J19" s="2">
-        <v>131080</v>
+        <v>262160</v>
       </c>
       <c r="K19" s="2">
-        <v>131080</v>
+        <v>262160</v>
       </c>
       <c r="L19" s="2">
-        <v>131080</v>
+        <v>262160</v>
       </c>
       <c r="M19" s="2">
-        <v>131080</v>
+        <v>262160</v>
       </c>
       <c r="N19" s="2">
-        <v>131080</v>
+        <v>262160</v>
       </c>
       <c r="O19" s="2">
-        <v>131080</v>
+        <v>262160</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20" customHeight="1">
@@ -7313,43 +7329,43 @@
         <v>0.38</v>
       </c>
       <c r="C20" s="2">
-        <v>49770</v>
+        <v>99540</v>
       </c>
       <c r="D20" s="3">
-        <v>49770</v>
+        <v>99540</v>
       </c>
       <c r="E20" s="2">
-        <v>66360</v>
+        <v>132720</v>
       </c>
       <c r="F20" s="2">
-        <v>58070</v>
+        <v>116140</v>
       </c>
       <c r="G20" s="2">
-        <v>58070</v>
+        <v>116140</v>
       </c>
       <c r="H20" s="2">
-        <v>99540</v>
+        <v>199080</v>
       </c>
       <c r="I20" s="2">
-        <v>116130</v>
+        <v>232260</v>
       </c>
       <c r="J20" s="2">
-        <v>165890</v>
+        <v>331780</v>
       </c>
       <c r="K20" s="2">
-        <v>165890</v>
+        <v>331780</v>
       </c>
       <c r="L20" s="2">
-        <v>165890</v>
+        <v>331780</v>
       </c>
       <c r="M20" s="2">
-        <v>165890</v>
+        <v>331780</v>
       </c>
       <c r="N20" s="2">
-        <v>165890</v>
+        <v>331780</v>
       </c>
       <c r="O20" s="2">
-        <v>165890</v>
+        <v>331780</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20" customHeight="1">
@@ -7360,43 +7376,43 @@
         <v>0.4</v>
       </c>
       <c r="C21" s="2">
-        <v>61440</v>
+        <v>122880</v>
       </c>
       <c r="D21" s="3">
-        <v>61440</v>
+        <v>122880</v>
       </c>
       <c r="E21" s="2">
-        <v>81920</v>
+        <v>163840</v>
       </c>
       <c r="F21" s="2">
-        <v>71680</v>
+        <v>143360</v>
       </c>
       <c r="G21" s="2">
-        <v>71680</v>
+        <v>143360</v>
       </c>
       <c r="H21" s="2">
-        <v>122880</v>
+        <v>245760</v>
       </c>
       <c r="I21" s="2">
-        <v>143360</v>
+        <v>286720</v>
       </c>
       <c r="J21" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="K21" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="L21" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="M21" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="N21" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
       <c r="O21" s="2">
-        <v>204800</v>
+        <v>409600</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20" customHeight="1">

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="700" windowWidth="31460" windowHeight="16280" tabRatio="297" activeTab="4"/>
+    <workbookView xWindow="-25020" yWindow="760" windowWidth="31460" windowHeight="14760" tabRatio="297" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -459,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1488">
+  <cellStyleXfs count="1498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -474,6 +474,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1980,7 +1990,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1488">
+  <cellStyles count="1498">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2727,6 +2737,11 @@
     <cellStyle name="超链接" xfId="1482" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1484" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1486" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1488" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1490" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3466,6 +3481,11 @@
     <cellStyle name="访问过的超链接" xfId="1483" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1485" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1487" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1489" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1491" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -4655,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4698,13 +4718,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>41</v>
@@ -4718,13 +4738,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="2">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>17</v>
@@ -4741,13 +4761,13 @@
         <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>180</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
-        <v>284</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
@@ -4764,13 +4784,13 @@
         <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>740</v>
+        <v>162</v>
       </c>
       <c r="D5" s="2">
-        <v>1214</v>
+        <v>320</v>
       </c>
       <c r="E5" s="2">
-        <v>1392</v>
+        <v>372</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>24</v>
@@ -4787,13 +4807,13 @@
         <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>2020</v>
+        <v>486</v>
       </c>
       <c r="D6" s="2">
-        <v>3457</v>
+        <v>868</v>
       </c>
       <c r="E6" s="2">
-        <v>3984</v>
+        <v>995</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>24</v>
@@ -5378,8 +5398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5420,13 +5440,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1">
@@ -5440,10 +5460,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20" customHeight="1">
@@ -5454,13 +5474,13 @@
         <v>480</v>
       </c>
       <c r="C4" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1">
@@ -5471,13 +5491,13 @@
         <v>880</v>
       </c>
       <c r="C5" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1">
@@ -5488,13 +5508,13 @@
         <v>1920</v>
       </c>
       <c r="C6" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1">
@@ -5505,13 +5525,13 @@
         <v>2500</v>
       </c>
       <c r="C7" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
@@ -5522,13 +5542,13 @@
         <v>3120</v>
       </c>
       <c r="C8" s="2">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -5539,13 +5559,13 @@
         <v>3780</v>
       </c>
       <c r="C9" s="2">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1">
@@ -5556,13 +5576,13 @@
         <v>4480</v>
       </c>
       <c r="C10" s="2">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2">
-        <v>44</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1">
@@ -5573,13 +5593,13 @@
         <v>6000</v>
       </c>
       <c r="C11" s="2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1">
@@ -5590,13 +5610,13 @@
         <v>12400</v>
       </c>
       <c r="C12" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -5607,13 +5627,13 @@
         <v>15360</v>
       </c>
       <c r="C13" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -5624,13 +5644,13 @@
         <v>18480</v>
       </c>
       <c r="C14" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -5641,13 +5661,13 @@
         <v>21760</v>
       </c>
       <c r="C15" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E15" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -5658,13 +5678,13 @@
         <v>25200</v>
       </c>
       <c r="C16" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E16" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5675,13 +5695,13 @@
         <v>28800</v>
       </c>
       <c r="C17" s="2">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D17" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="E17" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -5692,13 +5712,13 @@
         <v>32560</v>
       </c>
       <c r="C18" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -5709,13 +5729,13 @@
         <v>36480</v>
       </c>
       <c r="C19" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D19" s="2">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="E19" s="2">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -5726,13 +5746,13 @@
         <v>40580</v>
       </c>
       <c r="C20" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D20" s="2">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="E20" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -5743,13 +5763,13 @@
         <v>44820</v>
       </c>
       <c r="C21" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D21" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -5760,13 +5780,13 @@
         <v>98580</v>
       </c>
       <c r="C22" s="2">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="D22" s="2">
-        <v>335</v>
+        <v>226</v>
       </c>
       <c r="E22" s="2">
-        <v>394</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -5777,13 +5797,13 @@
         <v>122900</v>
       </c>
       <c r="C23" s="2">
-        <v>244</v>
+        <v>152</v>
       </c>
       <c r="D23" s="2">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="E23" s="2">
-        <v>452</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
@@ -5794,13 +5814,13 @@
         <v>149780</v>
       </c>
       <c r="C24" s="2">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="D24" s="2">
-        <v>437</v>
+        <v>278</v>
       </c>
       <c r="E24" s="2">
-        <v>509</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -5811,13 +5831,13 @@
         <v>179220</v>
       </c>
       <c r="C25" s="2">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="D25" s="2">
-        <v>488</v>
+        <v>304</v>
       </c>
       <c r="E25" s="2">
-        <v>567</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -5828,13 +5848,13 @@
         <v>211220</v>
       </c>
       <c r="C26" s="2">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2">
-        <v>539</v>
+        <v>330</v>
       </c>
       <c r="E26" s="2">
-        <v>624</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
@@ -5845,13 +5865,13 @@
         <v>245780</v>
       </c>
       <c r="C27" s="2">
-        <v>372</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2">
-        <v>590</v>
+        <v>356</v>
       </c>
       <c r="E27" s="2">
-        <v>682</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
@@ -5862,13 +5882,13 @@
         <v>282900</v>
       </c>
       <c r="C28" s="2">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="D28" s="2">
-        <v>641</v>
+        <v>382</v>
       </c>
       <c r="E28" s="2">
-        <v>740</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
@@ -5879,13 +5899,13 @@
         <v>322580</v>
       </c>
       <c r="C29" s="2">
-        <v>436</v>
+        <v>248</v>
       </c>
       <c r="D29" s="2">
-        <v>692</v>
+        <v>408</v>
       </c>
       <c r="E29" s="2">
-        <v>797</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
@@ -5896,13 +5916,13 @@
         <v>364800</v>
       </c>
       <c r="C30" s="2">
-        <v>468</v>
+        <v>264</v>
       </c>
       <c r="D30" s="2">
-        <v>743</v>
+        <v>434</v>
       </c>
       <c r="E30" s="2">
-        <v>855</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
@@ -5913,13 +5933,13 @@
         <v>409600</v>
       </c>
       <c r="C31" s="2">
-        <v>500</v>
+        <v>280</v>
       </c>
       <c r="D31" s="2">
-        <v>794</v>
+        <v>460</v>
       </c>
       <c r="E31" s="2">
-        <v>912</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
@@ -5930,13 +5950,13 @@
         <v>675840</v>
       </c>
       <c r="C32" s="2">
-        <v>804</v>
+        <v>312</v>
       </c>
       <c r="D32" s="2">
-        <v>1316</v>
+        <v>512</v>
       </c>
       <c r="E32" s="2">
-        <v>1507</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
@@ -5947,13 +5967,13 @@
         <v>798720</v>
       </c>
       <c r="C33" s="2">
-        <v>868</v>
+        <v>344</v>
       </c>
       <c r="D33" s="2">
-        <v>1418</v>
+        <v>564</v>
       </c>
       <c r="E33" s="2">
-        <v>1623</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
@@ -5964,13 +5984,13 @@
         <v>931840</v>
       </c>
       <c r="C34" s="2">
-        <v>932</v>
+        <v>376</v>
       </c>
       <c r="D34" s="2">
-        <v>1521</v>
+        <v>616</v>
       </c>
       <c r="E34" s="2">
-        <v>1738</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
@@ -5981,13 +6001,13 @@
         <v>1075200</v>
       </c>
       <c r="C35" s="2">
-        <v>996</v>
+        <v>408</v>
       </c>
       <c r="D35" s="2">
-        <v>1623</v>
+        <v>668</v>
       </c>
       <c r="E35" s="2">
-        <v>1853</v>
+        <v>752</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
@@ -5998,13 +6018,13 @@
         <v>1228800</v>
       </c>
       <c r="C36" s="2">
-        <v>1060</v>
+        <v>440</v>
       </c>
       <c r="D36" s="2">
-        <v>1725</v>
+        <v>720</v>
       </c>
       <c r="E36" s="2">
-        <v>1968</v>
+        <v>810</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
@@ -6015,13 +6035,13 @@
         <v>1392640</v>
       </c>
       <c r="C37" s="2">
-        <v>1124</v>
+        <v>472</v>
       </c>
       <c r="D37" s="2">
-        <v>1828</v>
+        <v>772</v>
       </c>
       <c r="E37" s="2">
-        <v>2083</v>
+        <v>868</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
@@ -6032,13 +6052,13 @@
         <v>1566720</v>
       </c>
       <c r="C38" s="2">
-        <v>1188</v>
+        <v>504</v>
       </c>
       <c r="D38" s="2">
-        <v>1930</v>
+        <v>824</v>
       </c>
       <c r="E38" s="2">
-        <v>2199</v>
+        <v>926</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
@@ -6049,13 +6069,13 @@
         <v>1751040</v>
       </c>
       <c r="C39" s="2">
-        <v>1252</v>
+        <v>536</v>
       </c>
       <c r="D39" s="2">
-        <v>2033</v>
+        <v>876</v>
       </c>
       <c r="E39" s="2">
-        <v>2314</v>
+        <v>984</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
@@ -6066,13 +6086,13 @@
         <v>1945600</v>
       </c>
       <c r="C40" s="2">
-        <v>1316</v>
+        <v>568</v>
       </c>
       <c r="D40" s="2">
-        <v>2135</v>
+        <v>928</v>
       </c>
       <c r="E40" s="2">
-        <v>2429</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
@@ -6083,13 +6103,13 @@
         <v>2150400</v>
       </c>
       <c r="C41" s="2">
-        <v>1380</v>
+        <v>600</v>
       </c>
       <c r="D41" s="2">
-        <v>2237</v>
+        <v>980</v>
       </c>
       <c r="E41" s="2">
-        <v>2544</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
@@ -6100,13 +6120,13 @@
         <v>3386880</v>
       </c>
       <c r="C42" s="2">
-        <v>2148</v>
+        <v>664</v>
       </c>
       <c r="D42" s="2">
-        <v>3662</v>
+        <v>1083</v>
       </c>
       <c r="E42" s="2">
-        <v>4214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
@@ -6117,13 +6137,13 @@
         <v>3773460</v>
       </c>
       <c r="C43" s="2">
-        <v>2276</v>
+        <v>728</v>
       </c>
       <c r="D43" s="2">
-        <v>3867</v>
+        <v>1186</v>
       </c>
       <c r="E43" s="2">
-        <v>4445</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1">
@@ -6134,13 +6154,13 @@
         <v>4180500</v>
       </c>
       <c r="C44" s="2">
-        <v>2404</v>
+        <v>792</v>
       </c>
       <c r="D44" s="2">
-        <v>4072</v>
+        <v>1289</v>
       </c>
       <c r="E44" s="2">
-        <v>4675</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1">
@@ -6151,13 +6171,13 @@
         <v>4608200</v>
       </c>
       <c r="C45" s="2">
-        <v>2532</v>
+        <v>856</v>
       </c>
       <c r="D45" s="2">
-        <v>4277</v>
+        <v>1392</v>
       </c>
       <c r="E45" s="2">
-        <v>4905</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1">
@@ -6168,13 +6188,13 @@
         <v>5056200</v>
       </c>
       <c r="C46" s="2">
-        <v>2660</v>
+        <v>920</v>
       </c>
       <c r="D46" s="2">
-        <v>4482</v>
+        <v>1495</v>
       </c>
       <c r="E46" s="2">
-        <v>5136</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1">
@@ -6185,13 +6205,13 @@
         <v>5524600</v>
       </c>
       <c r="C47" s="2">
-        <v>2788</v>
+        <v>984</v>
       </c>
       <c r="D47" s="2">
-        <v>4686</v>
+        <v>1598</v>
       </c>
       <c r="E47" s="2">
-        <v>5366</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1">
@@ -6202,13 +6222,13 @@
         <v>6013600</v>
       </c>
       <c r="C48" s="2">
-        <v>2916</v>
+        <v>1048</v>
       </c>
       <c r="D48" s="2">
-        <v>4891</v>
+        <v>1701</v>
       </c>
       <c r="E48" s="2">
-        <v>5597</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1">
@@ -6218,14 +6238,14 @@
       <c r="B49" s="2">
         <v>6523000</v>
       </c>
-      <c r="C49" s="2">
-        <v>3044</v>
+      <c r="C49" s="8">
+        <v>1112</v>
       </c>
       <c r="D49" s="2">
-        <v>5096</v>
+        <v>1804</v>
       </c>
       <c r="E49" s="2">
-        <v>5827</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1">
@@ -6235,14 +6255,14 @@
       <c r="B50" s="2">
         <v>7053000</v>
       </c>
-      <c r="C50" s="2">
-        <v>3172</v>
+      <c r="C50" s="8">
+        <v>1176</v>
       </c>
       <c r="D50" s="2">
-        <v>5301</v>
+        <v>1907</v>
       </c>
       <c r="E50" s="2">
-        <v>6057</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1">
@@ -6253,13 +6273,13 @@
         <v>7680200</v>
       </c>
       <c r="C51" s="8">
-        <v>3300</v>
-      </c>
-      <c r="D51" s="2">
-        <v>5506</v>
-      </c>
-      <c r="E51" s="2">
-        <v>6288</v>
+        <v>1240</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2010</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2260</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1">
@@ -6413,8 +6433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:Q78"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25020" yWindow="760" windowWidth="31460" windowHeight="14760" tabRatio="297" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>INT_index</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_multipleMin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -291,6 +287,10 @@
   </si>
   <si>
     <t>INT_initLeadership</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_multipleMin</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3992,16 +3992,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -4010,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -4024,16 +4024,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
@@ -4056,16 +4056,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -4074,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
@@ -4477,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4496,13 +4496,13 @@
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4510,13 +4510,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="7">
         <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -4524,13 +4524,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
       <c r="D3" s="7">
-        <v>0.05</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -4538,13 +4538,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="7">
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -4555,108 +4555,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>8</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="7">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7">
-        <v>10</v>
-      </c>
-      <c r="C11" s="7">
-        <v>11</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
-      <c r="A12" s="7">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4689,25 +4591,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -4727,7 +4629,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4750,7 +4652,7 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4770,10 +4672,10 @@
         <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4793,10 +4695,10 @@
         <v>372</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4816,10 +4718,10 @@
         <v>995</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5417,19 +5319,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6450,49 +6352,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" activeTab="1"/>
+    <workbookView xWindow="2020" yWindow="900" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>insensitive</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_dragonType</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -77,42 +73,6 @@
   </si>
   <si>
     <t>greenDragon</t>
-  </si>
-  <si>
-    <t>STR_skill_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_8</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_skill_9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>crown,armguardLeft,armguardRight</t>
@@ -166,18 +126,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>greedy</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>recover</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>earthquake</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_levelMax</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -203,22 +151,6 @@
   </si>
   <si>
     <t>STR_skillsUnlocked</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance,dragonBreath,leadership</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>infantryEnhance,archerEnhance,dragonBlood,cavalryEnhance,siegeEnhance,dragonBreath,leadership,greedy,frenzied,recover,insensitive,earthquake,battleHunger</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -291,6 +223,74 @@
   </si>
   <si>
     <t>FLOAT_multipleMin</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_7</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>lightningStorm</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>poisonNova</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>surge</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_5</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_skill_6</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood,leadership,surge,earthquake,battleHunger</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1498">
+  <cellStyleXfs count="1524">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -474,6 +474,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1990,7 +2016,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1498">
+  <cellStyles count="1524">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2742,6 +2768,19 @@
     <cellStyle name="超链接" xfId="1492" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1494" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1496" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1498" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1500" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1502" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1504" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1506" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1508" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1510" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1512" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1514" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1516" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3486,6 +3525,19 @@
     <cellStyle name="访问过的超链接" xfId="1493" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1495" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1497" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1499" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1501" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1503" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1505" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1507" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1509" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1511" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1513" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1515" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1517" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3938,70 +3990,71 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="17.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -4010,10 +4063,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
@@ -4021,19 +4074,19 @@
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -4042,30 +4095,30 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -4074,394 +4127,394 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1">
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1">
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20" customHeight="1">
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20" customHeight="1">
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1">
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1">
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1">
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1">
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1">
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1">
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1">
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="20" customHeight="1">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="20" customHeight="1">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1">
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="20" customHeight="1">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="20" customHeight="1">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="20" customHeight="1">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2" ht="20" customHeight="1">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="20" customHeight="1">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2" ht="20" customHeight="1">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2" ht="20" customHeight="1">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2" ht="20" customHeight="1">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2" ht="20" customHeight="1">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:2" ht="20" customHeight="1">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="1:2" ht="20" customHeight="1">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="1:2" ht="20" customHeight="1">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="1:2" ht="20" customHeight="1">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:2" ht="20" customHeight="1">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="20" customHeight="1">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2" ht="20" customHeight="1">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2" ht="20" customHeight="1">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:2" ht="20" customHeight="1">
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-    </row>
-    <row r="41" spans="1:2" ht="20" customHeight="1">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:2" ht="20" customHeight="1">
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:2" ht="20" customHeight="1">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:2" ht="20" customHeight="1">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-    </row>
-    <row r="45" spans="1:2" ht="20" customHeight="1">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-    </row>
-    <row r="46" spans="1:2" ht="20" customHeight="1">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="47" spans="1:2" ht="20" customHeight="1">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2" ht="20" customHeight="1">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:2" ht="20" customHeight="1">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-    </row>
-    <row r="50" spans="1:2" ht="20" customHeight="1">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-    </row>
-    <row r="51" spans="1:2" ht="20" customHeight="1">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" ht="20" customHeight="1">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="53" spans="1:2" ht="20" customHeight="1">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-    </row>
-    <row r="54" spans="1:2" ht="20" customHeight="1">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" ht="20" customHeight="1">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" spans="1:2" ht="20" customHeight="1">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-    </row>
-    <row r="57" spans="1:2" ht="20" customHeight="1">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-    </row>
-    <row r="58" spans="1:2" ht="20" customHeight="1">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-    </row>
-    <row r="59" spans="1:2" ht="20" customHeight="1">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="60" spans="1:2" ht="20" customHeight="1">
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-    </row>
-    <row r="61" spans="1:2" ht="20" customHeight="1">
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-    </row>
-    <row r="62" spans="1:2" ht="20" customHeight="1">
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="63" spans="1:2" ht="20" customHeight="1">
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-    </row>
-    <row r="64" spans="1:2" ht="20" customHeight="1">
+      <c r="C63" s="3"/>
+    </row>
+    <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-    </row>
-    <row r="65" spans="1:2" ht="20" customHeight="1">
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="66" spans="1:2" ht="20" customHeight="1">
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-    </row>
-    <row r="67" spans="1:2" ht="20" customHeight="1">
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-    </row>
-    <row r="68" spans="1:2" ht="20" customHeight="1">
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-    </row>
-    <row r="69" spans="1:2" ht="20" customHeight="1">
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-    </row>
-    <row r="70" spans="1:2" ht="20" customHeight="1">
+      <c r="C69" s="3"/>
+    </row>
+    <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-    </row>
-    <row r="71" spans="1:2" ht="20" customHeight="1">
+      <c r="C70" s="3"/>
+    </row>
+    <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-    </row>
-    <row r="72" spans="1:2" ht="20" customHeight="1">
+      <c r="C71" s="3"/>
+    </row>
+    <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-    </row>
-    <row r="73" spans="1:2" ht="20" customHeight="1">
+      <c r="C72" s="3"/>
+    </row>
+    <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="74" spans="1:2" ht="20" customHeight="1">
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-    </row>
-    <row r="75" spans="1:2" ht="20" customHeight="1">
+      <c r="C74" s="3"/>
+    </row>
+    <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" spans="1:2" ht="20" customHeight="1">
+      <c r="C75" s="3"/>
+    </row>
+    <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-    </row>
-    <row r="77" spans="1:2" ht="20" customHeight="1">
+      <c r="C76" s="3"/>
+    </row>
+    <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-    </row>
-    <row r="78" spans="1:2" ht="20" customHeight="1">
+      <c r="C77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-    </row>
-    <row r="79" spans="1:2" ht="20" customHeight="1">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-    </row>
-    <row r="80" spans="1:2" ht="20" customHeight="1">
+      <c r="C79" s="3"/>
+    </row>
+    <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-    </row>
-    <row r="81" spans="1:2" ht="20" customHeight="1">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-    </row>
-    <row r="82" spans="1:2" ht="20" customHeight="1">
+      <c r="C81" s="3"/>
+    </row>
+    <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="83" spans="1:2" ht="20" customHeight="1">
+      <c r="C82" s="3"/>
+    </row>
+    <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-    </row>
-    <row r="84" spans="1:2" ht="20" customHeight="1">
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-    </row>
-    <row r="85" spans="1:2" ht="20" customHeight="1">
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-    </row>
-    <row r="86" spans="1:2" ht="20" customHeight="1">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-    </row>
-    <row r="87" spans="1:2" ht="20" customHeight="1">
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-    </row>
-    <row r="88" spans="1:2" ht="20" customHeight="1">
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-    </row>
-    <row r="89" spans="1:2" ht="20" customHeight="1">
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="90" spans="1:2" ht="20" customHeight="1">
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-    </row>
-    <row r="91" spans="1:2" ht="20" customHeight="1">
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-    </row>
-    <row r="92" spans="1:2" ht="20" customHeight="1">
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-    </row>
-    <row r="93" spans="1:2" ht="20" customHeight="1">
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-    </row>
-    <row r="94" spans="1:2" ht="20" customHeight="1">
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-    </row>
-    <row r="95" spans="1:2" ht="20" customHeight="1">
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-    </row>
-    <row r="96" spans="1:2" ht="20" customHeight="1">
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="97" spans="1:2" ht="20" customHeight="1">
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-    </row>
-    <row r="98" spans="1:2" ht="20" customHeight="1">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4480,7 +4533,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4493,16 +4546,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4578,38 +4631,40 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="5" width="17.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="52" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="17.6640625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1640625" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="107.33203125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -4629,7 +4684,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4649,10 +4704,10 @@
         <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4672,10 +4727,10 @@
         <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4695,10 +4750,10 @@
         <v>372</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4718,10 +4773,10 @@
         <v>995</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5319,19 +5374,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6336,7 +6391,7 @@
   <dimension ref="A1:O99"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6352,49 +6407,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="20" customHeight="1">

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -4,37 +4,37 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="900" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
     <sheet name="fightFix" sheetId="61" r:id="rId2"/>
     <sheet name="dragonStar" sheetId="64" r:id="rId3"/>
     <sheet name="dragonLevel" sheetId="62" r:id="rId4"/>
-    <sheet name="dragonSkills" sheetId="63" r:id="rId5"/>
+    <sheet name="dragonBuff" sheetId="65" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_2">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_6">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_7">#REF!</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="3">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="0">#REF!</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="4">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="2">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_8">#REF!</definedName>
@@ -49,16 +49,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>dragonBreath</t>
   </si>
   <si>
     <t>siegeEnhance</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>frenzied</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -101,9 +97,6 @@
   <si>
     <t>crown,armguardLeft,armguardRight,chest,sting,orb</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleHunger</t>
   </si>
   <si>
     <t>infantryEnhance</t>
@@ -151,62 +144,6 @@
   </si>
   <si>
     <t>STR_skillsUnlocked</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOAT_effect</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_infantryEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_archerEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_cavalryEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_siegeEnhanceBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonBreathBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_leadershipBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_greedyBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_frenziedBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_recoverBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_insensitiveBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_earthquakeBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_battleHungerBloodCost</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT_dragonBloodBloodCost</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -286,11 +223,37 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood,leadership,surge,earthquake,battleHunger</t>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood</t>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>earthquake</t>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood,leadership,greedy,surge,earthquake</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hellFire,lightningStorm,poisonNova,infantryEnhance,archerEnhance,cavalryEnhance,siegeEnhance,dragonBreath,dragonBlood,leadership,greedy,surge,earthquake</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpFrom</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpTo</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_buffPercent</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +422,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1524">
+  <cellStyleXfs count="1526">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -474,6 +437,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2016,7 +1981,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1524">
+  <cellStyles count="1526">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2781,6 +2746,7 @@
     <cellStyle name="超链接" xfId="1518" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3538,6 +3504,7 @@
     <cellStyle name="访问过的超链接" xfId="1519" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -3990,7 +3957,7 @@
   <dimension ref="A1:J98"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4010,51 +3977,51 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -4063,30 +4030,30 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
@@ -4095,30 +4062,30 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>1</v>
@@ -4127,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1">
@@ -4532,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4546,16 +4513,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -4631,7 +4598,7 @@
   <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -4646,25 +4613,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1">
@@ -4684,7 +4651,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1">
@@ -4704,10 +4671,10 @@
         <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1">
@@ -4727,10 +4694,10 @@
         <v>138</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1">
@@ -4750,10 +4717,10 @@
         <v>372</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1">
@@ -4773,10 +4740,10 @@
         <v>995</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5356,7 +5323,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5374,19 +5341,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6388,1137 +6355,366 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="20.6640625" style="2"/>
+    <col min="3" max="3" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20" customHeight="1">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="C2" s="2">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2">
-        <v>60</v>
-      </c>
-      <c r="F2" s="2">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
-        <v>80</v>
-      </c>
-      <c r="I2" s="2">
-        <v>100</v>
-      </c>
-      <c r="J2" s="2">
-        <v>140</v>
-      </c>
-      <c r="K2" s="2">
-        <v>140</v>
-      </c>
-      <c r="L2" s="2">
-        <v>140</v>
-      </c>
-      <c r="M2" s="2">
-        <v>140</v>
-      </c>
-      <c r="N2" s="2">
-        <v>140</v>
-      </c>
-      <c r="O2" s="2">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="3">
-        <v>100</v>
-      </c>
-      <c r="E3" s="2">
-        <v>140</v>
-      </c>
-      <c r="F3" s="2">
-        <v>120</v>
-      </c>
-      <c r="G3" s="2">
-        <v>120</v>
-      </c>
-      <c r="H3" s="2">
-        <v>200</v>
-      </c>
-      <c r="I3" s="2">
-        <v>240</v>
-      </c>
-      <c r="J3" s="2">
-        <v>340</v>
-      </c>
-      <c r="K3" s="2">
-        <v>340</v>
-      </c>
-      <c r="L3" s="2">
-        <v>340</v>
-      </c>
-      <c r="M3" s="2">
-        <v>340</v>
-      </c>
-      <c r="N3" s="2">
-        <v>340</v>
-      </c>
-      <c r="O3" s="2">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="19" customHeight="1">
-      <c r="A4" s="2">
+      <c r="D4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="C4" s="2">
-        <v>180</v>
-      </c>
-      <c r="D4" s="3">
-        <v>180</v>
-      </c>
-      <c r="E4" s="2">
-        <v>240</v>
-      </c>
-      <c r="F4" s="2">
-        <v>200</v>
-      </c>
-      <c r="G4" s="2">
-        <v>200</v>
-      </c>
-      <c r="H4" s="2">
-        <v>340</v>
-      </c>
-      <c r="I4" s="2">
-        <v>400</v>
-      </c>
-      <c r="J4" s="2">
-        <v>580</v>
-      </c>
-      <c r="K4" s="2">
-        <v>580</v>
-      </c>
-      <c r="L4" s="2">
-        <v>580</v>
-      </c>
-      <c r="M4" s="2">
-        <v>580</v>
-      </c>
-      <c r="N4" s="2">
-        <v>580</v>
-      </c>
-      <c r="O4" s="2">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
       <c r="B5" s="2">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>260</v>
-      </c>
-      <c r="D5" s="3">
-        <v>260</v>
-      </c>
-      <c r="E5" s="2">
-        <v>340</v>
-      </c>
-      <c r="F5" s="2">
-        <v>300</v>
-      </c>
-      <c r="G5" s="2">
-        <v>300</v>
-      </c>
-      <c r="H5" s="2">
-        <v>500</v>
-      </c>
-      <c r="I5" s="2">
-        <v>580</v>
-      </c>
-      <c r="J5" s="2">
-        <v>840</v>
-      </c>
-      <c r="K5" s="2">
-        <v>840</v>
-      </c>
-      <c r="L5" s="2">
-        <v>840</v>
-      </c>
-      <c r="M5" s="2">
-        <v>840</v>
-      </c>
-      <c r="N5" s="2">
-        <v>840</v>
-      </c>
-      <c r="O5" s="2">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>340</v>
-      </c>
-      <c r="D6" s="3">
-        <v>340</v>
-      </c>
-      <c r="E6" s="2">
-        <v>460</v>
-      </c>
-      <c r="F6" s="2">
-        <v>400</v>
-      </c>
-      <c r="G6" s="2">
-        <v>400</v>
-      </c>
-      <c r="H6" s="2">
-        <v>680</v>
-      </c>
-      <c r="I6" s="2">
-        <v>800</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1140</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="C7" s="2">
-        <v>840</v>
-      </c>
-      <c r="D7" s="3">
-        <v>840</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1120</v>
-      </c>
-      <c r="F7" s="2">
-        <v>980</v>
-      </c>
-      <c r="G7" s="2">
-        <v>980</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1680</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1960</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2780</v>
-      </c>
-      <c r="O7" s="2">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1220</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1220</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1620</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1420</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1420</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2420</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2820</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="M8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="N8" s="2">
-        <v>4040</v>
-      </c>
-      <c r="O8" s="2">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1620</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1620</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2160</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1900</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1900</v>
-      </c>
-      <c r="H9" s="2">
-        <v>3240</v>
-      </c>
-      <c r="I9" s="2">
-        <v>3780</v>
-      </c>
-      <c r="J9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="L9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="M9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="N9" s="2">
-        <v>5400</v>
-      </c>
-      <c r="O9" s="2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2080</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2080</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2780</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2420</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2420</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4160</v>
-      </c>
-      <c r="I10" s="2">
-        <v>4840</v>
-      </c>
-      <c r="J10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="K10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="M10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="N10" s="2">
-        <v>6920</v>
-      </c>
-      <c r="O10" s="2">
-        <v>6920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.2</v>
       </c>
-      <c r="C11" s="2">
-        <v>2580</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2580</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3420</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>5140</v>
-      </c>
-      <c r="I11" s="2">
-        <v>5980</v>
-      </c>
-      <c r="J11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="K11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="L11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="M11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="N11" s="2">
-        <v>8540</v>
-      </c>
-      <c r="O11" s="2">
-        <v>8540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6660</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6660</v>
-      </c>
-      <c r="E12" s="2">
-        <v>8860</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7760</v>
-      </c>
-      <c r="G12" s="2">
-        <v>7760</v>
-      </c>
-      <c r="H12" s="2">
-        <v>13300</v>
-      </c>
-      <c r="I12" s="2">
-        <v>15520</v>
-      </c>
-      <c r="J12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="K12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="L12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="M12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="N12" s="2">
-        <v>22160</v>
-      </c>
-      <c r="O12" s="2">
-        <v>22160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9880</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9880</v>
-      </c>
-      <c r="E13" s="2">
-        <v>13160</v>
-      </c>
-      <c r="F13" s="2">
-        <v>11520</v>
-      </c>
-      <c r="G13" s="2">
-        <v>11520</v>
-      </c>
-      <c r="H13" s="2">
-        <v>19740</v>
-      </c>
-      <c r="I13" s="2">
-        <v>23040</v>
-      </c>
-      <c r="J13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="K13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="L13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="M13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="N13" s="2">
-        <v>32900</v>
-      </c>
-      <c r="O13" s="2">
-        <v>32900</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="C14" s="2">
-        <v>13720</v>
-      </c>
-      <c r="D14" s="3">
-        <v>13720</v>
-      </c>
-      <c r="E14" s="2">
-        <v>18280</v>
-      </c>
-      <c r="F14" s="2">
-        <v>16000</v>
-      </c>
-      <c r="G14" s="2">
-        <v>16000</v>
-      </c>
-      <c r="H14" s="2">
-        <v>27420</v>
-      </c>
-      <c r="I14" s="2">
-        <v>32000</v>
-      </c>
-      <c r="J14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="K14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="L14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="M14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="N14" s="2">
-        <v>45700</v>
-      </c>
-      <c r="O14" s="2">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="2">
-        <v>18180</v>
-      </c>
-      <c r="D15" s="3">
-        <v>18180</v>
-      </c>
-      <c r="E15" s="2">
-        <v>24220</v>
-      </c>
-      <c r="F15" s="2">
-        <v>21200</v>
-      </c>
-      <c r="G15" s="2">
-        <v>21200</v>
-      </c>
-      <c r="H15" s="2">
-        <v>36340</v>
-      </c>
-      <c r="I15" s="2">
-        <v>42400</v>
-      </c>
-      <c r="J15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="K15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="L15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="M15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="N15" s="2">
-        <v>60560</v>
-      </c>
-      <c r="O15" s="2">
-        <v>60560</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="C16" s="2">
-        <v>23240</v>
-      </c>
-      <c r="D16" s="3">
-        <v>23240</v>
-      </c>
-      <c r="E16" s="2">
-        <v>30980</v>
-      </c>
-      <c r="F16" s="2">
-        <v>27120</v>
-      </c>
-      <c r="G16" s="2">
-        <v>27120</v>
-      </c>
-      <c r="H16" s="2">
-        <v>46480</v>
-      </c>
-      <c r="I16" s="2">
-        <v>54220</v>
-      </c>
-      <c r="J16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="K16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="L16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="M16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="N16" s="2">
-        <v>77440</v>
-      </c>
-      <c r="O16" s="2">
-        <v>77440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>0.32</v>
-      </c>
-      <c r="C17" s="2">
-        <v>44240</v>
-      </c>
-      <c r="D17" s="3">
-        <v>44240</v>
-      </c>
-      <c r="E17" s="2">
-        <v>59000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>51620</v>
-      </c>
-      <c r="G17" s="2">
-        <v>51620</v>
-      </c>
-      <c r="H17" s="2">
-        <v>88480</v>
-      </c>
-      <c r="I17" s="2">
-        <v>103220</v>
-      </c>
-      <c r="J17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="K17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="L17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="M17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="N17" s="2">
-        <v>147460</v>
-      </c>
-      <c r="O17" s="2">
-        <v>147460</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="C18" s="2">
-        <v>60220</v>
-      </c>
-      <c r="D18" s="3">
-        <v>60220</v>
-      </c>
-      <c r="E18" s="2">
-        <v>80300</v>
-      </c>
-      <c r="F18" s="2">
-        <v>70260</v>
-      </c>
-      <c r="G18" s="2">
-        <v>70260</v>
-      </c>
-      <c r="H18" s="2">
-        <v>120440</v>
-      </c>
-      <c r="I18" s="2">
-        <v>140500</v>
-      </c>
-      <c r="J18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="K18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="L18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="M18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="N18" s="2">
-        <v>200720</v>
-      </c>
-      <c r="O18" s="2">
-        <v>200720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="C19" s="2">
-        <v>78660</v>
-      </c>
-      <c r="D19" s="3">
-        <v>78660</v>
-      </c>
-      <c r="E19" s="2">
-        <v>104860</v>
-      </c>
-      <c r="F19" s="2">
-        <v>91760</v>
-      </c>
-      <c r="G19" s="2">
-        <v>91760</v>
-      </c>
-      <c r="H19" s="2">
-        <v>157300</v>
-      </c>
-      <c r="I19" s="2">
-        <v>183520</v>
-      </c>
-      <c r="J19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="K19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="L19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="M19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="N19" s="2">
-        <v>262160</v>
-      </c>
-      <c r="O19" s="2">
-        <v>262160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="C20" s="2">
-        <v>99540</v>
-      </c>
-      <c r="D20" s="3">
-        <v>99540</v>
-      </c>
-      <c r="E20" s="2">
-        <v>132720</v>
-      </c>
-      <c r="F20" s="2">
-        <v>116140</v>
-      </c>
-      <c r="G20" s="2">
-        <v>116140</v>
-      </c>
-      <c r="H20" s="2">
-        <v>199080</v>
-      </c>
-      <c r="I20" s="2">
-        <v>232260</v>
-      </c>
-      <c r="J20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="K20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="L20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="M20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="N20" s="2">
-        <v>331780</v>
-      </c>
-      <c r="O20" s="2">
-        <v>331780</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>122880</v>
-      </c>
-      <c r="D21" s="3">
-        <v>122880</v>
-      </c>
-      <c r="E21" s="2">
-        <v>163840</v>
-      </c>
-      <c r="F21" s="2">
-        <v>143360</v>
-      </c>
-      <c r="G21" s="2">
-        <v>143360</v>
-      </c>
-      <c r="H21" s="2">
-        <v>245760</v>
-      </c>
-      <c r="I21" s="2">
-        <v>286720</v>
-      </c>
-      <c r="J21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="K21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="L21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="M21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="N21" s="2">
-        <v>409600</v>
-      </c>
-      <c r="O21" s="2">
-        <v>409600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" ht="20" customHeight="1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="20" customHeight="1">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" ht="20" customHeight="1">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" ht="20" customHeight="1">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="20" customHeight="1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="20" customHeight="1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="20" customHeight="1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="20" customHeight="1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="20" customHeight="1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="20" customHeight="1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="20" customHeight="1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="20" customHeight="1">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="20" customHeight="1">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="20" customHeight="1">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="20" customHeight="1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="20" customHeight="1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="20" customHeight="1">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="20" customHeight="1">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="20" customHeight="1">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="20" customHeight="1">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="20" customHeight="1">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="20" customHeight="1">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="20" customHeight="1">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="20" customHeight="1">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="20" customHeight="1">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:5" ht="20" customHeight="1">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:5" ht="20" customHeight="1">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" ht="20" customHeight="1">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" ht="20" customHeight="1">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="3:5" ht="20" customHeight="1">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="3:5" ht="20" customHeight="1">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="3:5" ht="20" customHeight="1">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="3:5" ht="20" customHeight="1">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="3:5" ht="20" customHeight="1">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="3:5" ht="20" customHeight="1">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="3:5" ht="20" customHeight="1">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="3:5" ht="20" customHeight="1">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="3:5" ht="20" customHeight="1">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="3:5" ht="20" customHeight="1">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="3:5" ht="20" customHeight="1">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="3:5" ht="20" customHeight="1">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5" ht="20" customHeight="1">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5" ht="20" customHeight="1">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5" ht="20" customHeight="1">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="3:5" ht="20" customHeight="1">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="3:5" ht="20" customHeight="1">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="3:5" ht="20" customHeight="1">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="3:5" ht="20" customHeight="1">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="3:5" ht="20" customHeight="1">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="3:5" ht="20" customHeight="1">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="3:5" ht="20" customHeight="1">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="3:5" ht="20" customHeight="1">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="3:5" ht="20" customHeight="1">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="3:5" ht="20" customHeight="1">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="3:5" ht="20" customHeight="1">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="3:5" ht="20" customHeight="1">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="3:5" ht="20" customHeight="1">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="20" customHeight="1">
+      <c r="C49" s="8"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="20" customHeight="1">
+      <c r="C50" s="8"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="20" customHeight="1">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" ht="20" customHeight="1">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" ht="20" customHeight="1">
+    <row r="53" spans="1:5" ht="20" customHeight="1">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" ht="20" customHeight="1">
+    <row r="54" spans="1:5" ht="20" customHeight="1">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" ht="20" customHeight="1">
+    <row r="55" spans="1:5" ht="20" customHeight="1">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" ht="20" customHeight="1">
+    <row r="56" spans="1:5" ht="20" customHeight="1">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" ht="20" customHeight="1">
+    <row r="57" spans="1:5" ht="20" customHeight="1">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" ht="20" customHeight="1">
+    <row r="58" spans="1:5" ht="20" customHeight="1">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" ht="20" customHeight="1">
+    <row r="59" spans="1:5" ht="20" customHeight="1">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" ht="20" customHeight="1">
+    <row r="60" spans="1:5" ht="20" customHeight="1">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" ht="20" customHeight="1">
+    <row r="61" spans="1:5" ht="20" customHeight="1">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" ht="20" customHeight="1">
+    <row r="62" spans="1:5" ht="20" customHeight="1">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" ht="20" customHeight="1">
+    <row r="63" spans="1:5" ht="20" customHeight="1">
       <c r="A63" s="3"/>
     </row>
-    <row r="64" spans="1:1" ht="20" customHeight="1">
+    <row r="64" spans="1:5" ht="20" customHeight="1">
       <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1" ht="20" customHeight="1">
@@ -7616,15 +6812,6 @@
     </row>
     <row r="96" spans="1:1" ht="20" customHeight="1">
       <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="20" customHeight="1">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" ht="20" customHeight="1">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="99" spans="1:1" ht="20" customHeight="1">
-      <c r="A99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="1920" yWindow="300" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -245,15 +245,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>INT_hpFrom</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_hpTo</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FLOAT_buffPercent</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_hpFrom</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6358,7 +6358,7 @@
   <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6379,13 +6379,13 @@
         <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1">
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -6408,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>65</v>
@@ -6423,7 +6423,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>

--- a/datas/shared/Dragons.xlsx
+++ b/datas/shared/Dragons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="300" windowWidth="25600" windowHeight="16060" tabRatio="297" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-24740" yWindow="0" windowWidth="22880" windowHeight="14940" tabRatio="297" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dragons" sheetId="60" r:id="rId1"/>
@@ -356,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -421,8 +421,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1526">
+  <cellStyleXfs count="1544">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -1953,8 +1966,26 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1980,8 +2011,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1526">
+  <cellStyles count="1544">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -2747,6 +2781,15 @@
     <cellStyle name="超链接" xfId="1520" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1522" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="1524" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1526" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1528" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1530" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1532" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1534" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1536" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1538" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1540" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="1542" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -3505,6 +3548,15 @@
     <cellStyle name="访问过的超链接" xfId="1521" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1523" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="1525" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1527" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1529" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1531" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1533" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1535" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1537" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1539" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1541" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="1543" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -5322,8 +5374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -5336,7 +5388,9 @@
     <col min="6" max="6" width="13.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="20.6640625" style="2"/>
+    <col min="9" max="9" width="8.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="20.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1">
@@ -5534,13 +5588,13 @@
         <v>12400</v>
       </c>
       <c r="C12" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E12" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1">
@@ -5551,13 +5605,13 @@
         <v>15360</v>
       </c>
       <c r="C13" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1">
@@ -5568,13 +5622,13 @@
         <v>18480</v>
       </c>
       <c r="C14" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1">
@@ -5585,13 +5639,13 @@
         <v>21760</v>
       </c>
       <c r="C15" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D15" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E15" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -5602,13 +5656,13 @@
         <v>25200</v>
       </c>
       <c r="C16" s="2">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D16" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -5619,13 +5673,13 @@
         <v>28800</v>
       </c>
       <c r="C17" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -5636,13 +5690,13 @@
         <v>32560</v>
       </c>
       <c r="C18" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -5653,13 +5707,13 @@
         <v>36480</v>
       </c>
       <c r="C19" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D19" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E19" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -5670,13 +5724,13 @@
         <v>40580</v>
       </c>
       <c r="C20" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="E20" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -5687,13 +5741,13 @@
         <v>44820</v>
       </c>
       <c r="C21" s="2">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D21" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -5704,13 +5758,13 @@
         <v>98580</v>
       </c>
       <c r="C22" s="2">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D22" s="2">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="E22" s="2">
-        <v>259</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -5721,13 +5775,13 @@
         <v>122900</v>
       </c>
       <c r="C23" s="2">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="D23" s="2">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="E23" s="2">
-        <v>288</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">
@@ -5738,13 +5792,13 @@
         <v>149780</v>
       </c>
       <c r="C24" s="2">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D24" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="E24" s="2">
-        <v>317</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20" customHeight="1">
@@ -5755,13 +5809,13 @@
         <v>179220</v>
       </c>
       <c r="C25" s="2">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="D25" s="2">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="E25" s="2">
-        <v>346</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="20" customHeight="1">
@@ -5772,13 +5826,13 @@
         <v>211220</v>
       </c>
       <c r="C26" s="2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="D26" s="2">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="E26" s="2">
-        <v>375</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="20" customHeight="1">
@@ -5789,13 +5843,13 @@
         <v>245780</v>
       </c>
       <c r="C27" s="2">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="D27" s="2">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="E27" s="2">
-        <v>404</v>
+        <v>465</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="20" customHeight="1">
@@ -5806,13 +5860,13 @@
         <v>282900</v>
       </c>
       <c r="C28" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="E28" s="2">
-        <v>433</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="20" customHeight="1">
@@ -5823,13 +5877,13 @@
         <v>322580</v>
       </c>
       <c r="C29" s="2">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="D29" s="2">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="E29" s="2">
-        <v>462</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="20" customHeight="1">
@@ -5840,13 +5894,13 @@
         <v>364800</v>
       </c>
       <c r="C30" s="2">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="D30" s="2">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="E30" s="2">
-        <v>491</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="20" customHeight="1">
@@ -5857,13 +5911,13 @@
         <v>409600</v>
       </c>
       <c r="C31" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="D31" s="2">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="E31" s="2">
-        <v>520</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="20" customHeight="1">
@@ -5874,13 +5928,13 @@
         <v>675840</v>
       </c>
       <c r="C32" s="2">
-        <v>312</v>
+        <v>406</v>
       </c>
       <c r="D32" s="2">
-        <v>512</v>
+        <v>666</v>
       </c>
       <c r="E32" s="2">
-        <v>578</v>
+        <v>751</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="20" customHeight="1">
@@ -5891,13 +5945,13 @@
         <v>798720</v>
       </c>
       <c r="C33" s="2">
-        <v>344</v>
+        <v>447</v>
       </c>
       <c r="D33" s="2">
-        <v>564</v>
+        <v>733</v>
       </c>
       <c r="E33" s="2">
-        <v>636</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="20" customHeight="1">
@@ -5908,13 +5962,13 @@
         <v>931840</v>
       </c>
       <c r="C34" s="2">
-        <v>376</v>
+        <v>489</v>
       </c>
       <c r="D34" s="2">
-        <v>616</v>
+        <v>801</v>
       </c>
       <c r="E34" s="2">
-        <v>694</v>
+        <v>902</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="20" customHeight="1">
@@ -5925,13 +5979,13 @@
         <v>1075200</v>
       </c>
       <c r="C35" s="2">
-        <v>408</v>
+        <v>530</v>
       </c>
       <c r="D35" s="2">
-        <v>668</v>
+        <v>868</v>
       </c>
       <c r="E35" s="2">
-        <v>752</v>
+        <v>978</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20" customHeight="1">
@@ -5942,13 +5996,13 @@
         <v>1228800</v>
       </c>
       <c r="C36" s="2">
-        <v>440</v>
+        <v>572</v>
       </c>
       <c r="D36" s="2">
-        <v>720</v>
+        <v>936</v>
       </c>
       <c r="E36" s="2">
-        <v>810</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="20" customHeight="1">
@@ -5959,13 +6013,13 @@
         <v>1392640</v>
       </c>
       <c r="C37" s="2">
-        <v>472</v>
+        <v>614</v>
       </c>
       <c r="D37" s="2">
-        <v>772</v>
+        <v>1004</v>
       </c>
       <c r="E37" s="2">
-        <v>868</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="20" customHeight="1">
@@ -5976,13 +6030,13 @@
         <v>1566720</v>
       </c>
       <c r="C38" s="2">
-        <v>504</v>
+        <v>655</v>
       </c>
       <c r="D38" s="2">
-        <v>824</v>
+        <v>1071</v>
       </c>
       <c r="E38" s="2">
-        <v>926</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="20" customHeight="1">
@@ -5993,13 +6047,13 @@
         <v>1751040</v>
       </c>
       <c r="C39" s="2">
-        <v>536</v>
+        <v>697</v>
       </c>
       <c r="D39" s="2">
-        <v>876</v>
+        <v>1139</v>
       </c>
       <c r="E39" s="2">
-        <v>984</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="20" customHeight="1">
@@ -6010,13 +6064,13 @@
         <v>1945600</v>
       </c>
       <c r="C40" s="2">
-        <v>568</v>
+        <v>738</v>
       </c>
       <c r="D40" s="2">
-        <v>928</v>
+        <v>1206</v>
       </c>
       <c r="E40" s="2">
-        <v>1042</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="20" customHeight="1">
@@ -6027,13 +6081,13 @@
         <v>2150400</v>
       </c>
       <c r="C41" s="2">
-        <v>600</v>
+        <v>780</v>
       </c>
       <c r="D41" s="2">
-        <v>980</v>
+        <v>1274</v>
       </c>
       <c r="E41" s="2">
-        <v>1100</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="20" customHeight="1">
@@ -6044,13 +6098,13 @@
         <v>3386880</v>
       </c>
       <c r="C42" s="2">
-        <v>664</v>
+        <v>996</v>
       </c>
       <c r="D42" s="2">
-        <v>1083</v>
+        <v>1625</v>
       </c>
       <c r="E42" s="2">
-        <v>1216</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20" customHeight="1">
@@ -6061,13 +6115,13 @@
         <v>3773460</v>
       </c>
       <c r="C43" s="2">
-        <v>728</v>
+        <v>1092</v>
       </c>
       <c r="D43" s="2">
-        <v>1186</v>
+        <v>1779</v>
       </c>
       <c r="E43" s="2">
-        <v>1332</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20" customHeight="1">
@@ -6078,13 +6132,13 @@
         <v>4180500</v>
       </c>
       <c r="C44" s="2">
-        <v>792</v>
+        <v>1188</v>
       </c>
       <c r="D44" s="2">
-        <v>1289</v>
+        <v>1934</v>
       </c>
       <c r="E44" s="2">
-        <v>1448</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20" customHeight="1">
@@ -6095,13 +6149,13 @@
         <v>4608200</v>
       </c>
       <c r="C45" s="2">
-        <v>856</v>
+        <v>1284</v>
       </c>
       <c r="D45" s="2">
-        <v>1392</v>
+        <v>2088</v>
       </c>
       <c r="E45" s="2">
-        <v>1564</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20" customHeight="1">
@@ -6112,13 +6166,13 @@
         <v>5056200</v>
       </c>
       <c r="C46" s="2">
-        <v>920</v>
+        <v>1380</v>
       </c>
       <c r="D46" s="2">
-        <v>1495</v>
+        <v>2243</v>
       </c>
       <c r="E46" s="2">
-        <v>1680</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="20" customHeight="1">
@@ -6129,13 +6183,13 @@
         <v>5524600</v>
       </c>
       <c r="C47" s="2">
-        <v>984</v>
+        <v>1476</v>
       </c>
       <c r="D47" s="2">
-        <v>1598</v>
+        <v>2397</v>
       </c>
       <c r="E47" s="2">
-        <v>1796</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="20" customHeight="1">
@@ -6145,14 +6199,14 @@
       <c r="B48" s="2">
         <v>6013600</v>
       </c>
-      <c r="C48" s="2">
-        <v>1048</v>
+      <c r="C48" s="8">
+        <v>1572</v>
       </c>
       <c r="D48" s="2">
-        <v>1701</v>
+        <v>2552</v>
       </c>
       <c r="E48" s="2">
-        <v>1912</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="20" customHeight="1">
@@ -6163,13 +6217,13 @@
         <v>6523000</v>
       </c>
       <c r="C49" s="8">
-        <v>1112</v>
+        <v>1668</v>
       </c>
       <c r="D49" s="2">
-        <v>1804</v>
+        <v>2706</v>
       </c>
       <c r="E49" s="2">
-        <v>2028</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="20" customHeight="1">
@@ -6180,13 +6234,13 @@
         <v>7053000</v>
       </c>
       <c r="C50" s="8">
-        <v>1176</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1907</v>
-      </c>
-      <c r="E50" s="2">
-        <v>2144</v>
+        <v>1764</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2861</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3216</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20" customHeight="1">
@@ -6197,13 +6251,13 @@
         <v>7680200</v>
       </c>
       <c r="C51" s="8">
-        <v>1240</v>
+        <v>1860</v>
       </c>
       <c r="D51" s="8">
-        <v>2010</v>
+        <v>3015</v>
       </c>
       <c r="E51" s="8">
-        <v>2260</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20" customHeight="1">
@@ -6357,8 +6411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -6393,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
@@ -6408,13 +6462,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -6423,13 +6477,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="C4" s="8">
+        <v>60</v>
       </c>
       <c r="D4" s="2">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -6438,24 +6492,44 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="9">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20" customHeight="1">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.25</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1">
